--- a/agmo_myfarm/data_file/AGMO_Dataset1_output.xlsx
+++ b/agmo_myfarm/data_file/AGMO_Dataset1_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\캐리어\Desktop\AGMO_Dataset_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songseung-u/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143F8774-3568-49D4-BE10-E70D71CB355A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE8E6B8-BF3C-754C-B722-9DEBE73C7399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B79A71A7-C7FB-AE47-9EB9-26EF57DAFE44}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B79A71A7-C7FB-AE47-9EB9-26EF57DAFE44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -453,16 +453,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89151D94-2863-ED4B-A42C-0085105A15B5}">
   <dimension ref="A1:M1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="J311" sqref="J311"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="J310" sqref="J310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="12" width="10.7265625" customWidth="1"/>
+    <col min="1" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -544,7 +544,7 @@
         <v>0.89912979999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -585,7 +585,7 @@
         <v>1.8322925000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -626,7 +626,7 @@
         <v>1.3520908</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -667,7 +667,7 @@
         <v>1.9106654999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -708,7 +708,7 @@
         <v>1.8333071999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -749,7 +749,7 @@
         <v>1.0558719000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -790,7 +790,7 @@
         <v>-9.1333399999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -831,7 +831,7 @@
         <v>9.1016700000000006E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -872,7 +872,7 @@
         <v>-0.45287519999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -913,7 +913,7 @@
         <v>-0.93052109999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -954,7 +954,7 @@
         <v>-1.1198063</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -995,7 +995,7 @@
         <v>-0.89073380000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>-0.67374999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>-0.26305580000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>-1.5058041</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>-1.4232997999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>-0.85887720000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>-0.45808219999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>-0.21168709999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>-0.91988570000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>-0.37474259999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>3.3760000000000002E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>-0.3148861</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>-0.33325769999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>-0.21138960000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>-22.964003200000001</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>-8.1076990000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>-2.2820116000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>-44.262298600000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>-44.262298600000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>-30.949821499999999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>1.4629364</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>-17.0062696</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>-4.7211819999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>3.6060154</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>-0.76648210000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>-1.0053126999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>-2.3320644000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>-2.2463711000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>-1.9890620999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>0.3596065</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>-1.2726415</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>-1.5844548000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>-2.2783483000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>-1.7519811000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>-1.6616337999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>-1.1068547</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>-0.29144029999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>-0.95583850000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>-0.75703169999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>0.2367274</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0.11096449999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>-0.48121389999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>0.1054713</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>5.1150000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>-0.73650870000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>-0.66775260000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>0.47575640000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>-0.13081100000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>0.74362439999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>-0.31190230000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>-1.0798619</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>-0.33480579999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>-0.2756169</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>0.16885629999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>-0.627332</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>-22.018795399999998</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>-10.881695199999999</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>-4.0451015000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>-3.3260310999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>-40.157556900000003</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>-21.4185585</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>-5.9491066000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>-24.150464199999998</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>-8.3801241999999991</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>5.6046905000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>-0.56767270000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>-2.0652466</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>-2.3717499000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>-1.9134064</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>-1.8692321999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>1.640155</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>-1.5516174</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>-1.7010620000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>-1.8586853000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>-1.9787262000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>-2.1873138000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>-2.0994537000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>-1.6049774000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>-0.1730469</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>-1.0597809</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>-0.93603210000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>-1.0017364</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>-0.65513299999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>-0.99755550000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>-0.56600649999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>-0.17144470000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>-2.5946471999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>-0.89199519999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0.18477170000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>-0.73515010000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>-0.65552980000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>-0.58916930000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>-1.1291321000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>0.26446839999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>-23.090043699999999</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>-8.5998397999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>-2.8531662999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>-46.711703999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>-30.190555400000001</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>-11.7878759</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>-3.8371312999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>-18.698703699999999</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>5.4471821</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>2.6466755000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>-1.1050335</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>-1.1700969999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>-2.1053692000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>-1.6096722000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>0.28111829999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>-0.99180040000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>-1.0584203000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>-1.8351842</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>-1.417368</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>-1.4628696999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>-1.5889378000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>-0.87400250000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>-0.71271709999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>-0.82856189999999996</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>-0.83460429999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>-1.0658055</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>-0.79496199999999995</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>0.38628190000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>-6.1258399999999998E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>0.11424819999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>7.2072899999999995E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>0.64803120000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>0.84645649999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>1.9170741</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>-0.35743150000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>0.19957539999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>-0.2509557</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>-15.292961200000001</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>-26.990440100000001</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>-30.604083200000002</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>-35.006253000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>-19.751828100000001</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>-4.2365478999999997</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:13">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>-1.6158394</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>-0.54674</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>-9.6266199999999996E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>-0.88215109999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>-0.99978109999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:13">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>-1.0571351</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>-0.71534960000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>-0.62900400000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0.109304</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6981,7 +6981,7 @@
         <v>7.3079599999999995E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>-0.72149890000000005</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:13">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>-0.72207880000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:13">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>-0.491568</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:13">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>-0.53738640000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:13">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>2.4819899999999999E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:13">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>-0.47743459999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>-1.1732621000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>-1.105246</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>-0.70460739999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>-1.1301827</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:13">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>-0.77563269999999995</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:13">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>-13.691234100000001</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>-23.450769000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>-26.1628547</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>-25.248067299999999</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:13">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>-18.310827100000001</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>-19.020042199999999</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:13">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>-23.616266299999999</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:13">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>-28.3209205</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:13">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>-29.4466985</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:13">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>-27.648004400000001</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:13">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>-10.150405599999999</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:13">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>-2.7651059</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:13">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>-1.9710843</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:13">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>-1.6422269</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:13">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>-1.6240079000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:13">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>-0.83135950000000003</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:13">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>-0.32162439999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:13">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>-0.63459750000000004</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:13">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>-0.33613549999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:13">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>-0.39257779999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:13">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>-0.86209069999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:13">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>-1.1388699</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:13">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>-0.88381929999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:13">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>-1.3881984999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:13">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>-1.402908</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:13">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>-1.3407895000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:13">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>-1.6111142000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:13">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>-1.2131802</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:13">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>-1.2396389999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:13">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>-0.71447720000000003</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:13">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>-1.7938229000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:13">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>-1.9547574000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:13">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>-1.477142</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:13">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>-1.3629032999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:13">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>12.9546513</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:13">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>21.5946444</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:13">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>25.071521099999998</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:13">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>27.5256738</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:13">
       <c r="A209">
         <v>208</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>23.9876592</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:13">
       <c r="A210">
         <v>209</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>6.2995793999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:13">
       <c r="A211">
         <v>210</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>0.3021276</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:13">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>-5.2547700000000003E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:13">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>-0.21603040000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:13">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>-0.94489690000000004</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:13">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>-1.0822565</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:13">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>-1.3244593</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:13">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>3.7232517000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:13">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>16.1752149</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:13">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>19.5928246</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:13">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>25.016480000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:13">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>30.101388499999999</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:13">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>20.489811799999998</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:13">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>2.9956366000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:13">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>6.8214999999999998E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:13">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>0.12858639999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:13">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>-0.49473509999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:13">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>-0.87851270000000004</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:13">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>-0.89153990000000005</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:13">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>-0.50572910000000004</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:13">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>-1.0131562999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:13">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>-0.90107280000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:13">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>-1.5958551000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:13">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>-1.3354448000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:13">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>-1.6875642</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:13">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>-0.4530748</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:13">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>-0.96341259999999995</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:13">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>-1.288978</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:13">
       <c r="A238">
         <v>237</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>-0.93314680000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:13">
       <c r="A239">
         <v>238</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>-1.8062279999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:13">
       <c r="A240">
         <v>239</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>-1.3677934</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:13">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>-1.1701729999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:13">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>-1.4100220999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:13">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>-1.8901703999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:13">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>-1.6694597</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:13">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>-0.68435080000000004</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:13">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>-5.5577287999999996</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:13">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>-17.219505300000002</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:13">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>-18.713326200000001</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:13">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>-31.5652145</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:13">
       <c r="A250">
         <v>249</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>-27.636257199999999</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:13">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>-16.902686599999999</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:13">
       <c r="A252">
         <v>251</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>-21.1139312</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:13">
       <c r="A253">
         <v>252</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>-23.9449489</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:13">
       <c r="A254">
         <v>253</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>-32.5359409</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:13">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>-29.568017000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:13">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>-16.299402099999998</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:13">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>-2.8513695999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:13">
       <c r="A258">
         <v>257</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>-2.4360406000000001</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:13">
       <c r="A259">
         <v>258</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>-1.7001397</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:13">
       <c r="A260">
         <v>259</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>-1.9957940000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:13">
       <c r="A261">
         <v>260</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>-1.8315789</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:13">
       <c r="A262">
         <v>261</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>-1.6406457000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:13">
       <c r="A263">
         <v>262</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>-1.4908501000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:13">
       <c r="A264">
         <v>263</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>-1.7002923000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:13">
       <c r="A265">
         <v>264</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>-1.2232873</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:13">
       <c r="A266">
         <v>265</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>-1.8718163000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:13">
       <c r="A267">
         <v>266</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>-1.4866235000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:13">
       <c r="A268">
         <v>267</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>-1.6601311000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:13">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>-1.3252923000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:13">
       <c r="A270">
         <v>269</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>-1.0896965999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:13">
       <c r="A271">
         <v>270</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>-1.5911614000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:13">
       <c r="A272">
         <v>271</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>-2.0568138999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:13">
       <c r="A273">
         <v>272</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>-2.4871116999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:13">
       <c r="A274">
         <v>273</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>-2.8591668000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:13">
       <c r="A275">
         <v>274</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>-2.2551629000000002</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:13">
       <c r="A276">
         <v>275</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>-1.8453117999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:13">
       <c r="A277">
         <v>276</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>-1.5874535000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:13">
       <c r="A278">
         <v>277</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>-1.2551323999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:13">
       <c r="A279">
         <v>278</v>
       </c>
@@ -11901,7 +11901,7 @@
         <v>-1.1549794</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:13">
       <c r="A280">
         <v>279</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>-5.9672913000000003</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:13">
       <c r="A281">
         <v>280</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>-20.011207899999999</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:13">
       <c r="A282">
         <v>281</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>-30.6296541</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:13">
       <c r="A283">
         <v>282</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>-31.710493100000001</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:13">
       <c r="A284">
         <v>283</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>-25.462713900000001</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:13">
       <c r="A285">
         <v>284</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>-9.4741274999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:13">
       <c r="A286">
         <v>285</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>-5.5990358999999996</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:13">
       <c r="A287">
         <v>286</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>-3.2977053000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:13">
       <c r="A288">
         <v>287</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>-15.4963303</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:13">
       <c r="A289">
         <v>288</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>-23.682293600000001</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:13">
       <c r="A290">
         <v>289</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>-29.083318800000001</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:13">
       <c r="A291">
         <v>290</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>-33.967238999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:13">
       <c r="A292">
         <v>291</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>-30.383275699999999</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:13">
       <c r="A293">
         <v>292</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>-13.7862118</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:13">
       <c r="A294">
         <v>293</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>-4.9269780000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:13">
       <c r="A295">
         <v>294</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>-3.2614505999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:13">
       <c r="A296">
         <v>295</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>-2.2445363</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:13">
       <c r="A297">
         <v>296</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>-1.557639</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:13">
       <c r="A298">
         <v>297</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>-1.8254994</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:13">
       <c r="A299">
         <v>298</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>-1.1448735000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:13">
       <c r="A300">
         <v>299</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>-0.66597260000000003</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:13">
       <c r="A301">
         <v>300</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>-0.55660520000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:13">
       <c r="A302">
         <v>301</v>
       </c>
@@ -12844,7 +12844,7 @@
         <v>-0.61257830000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:13">
       <c r="A303">
         <v>302</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>-0.33881650000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:13">
       <c r="A304">
         <v>303</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>0.1432582</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:13">
       <c r="A305">
         <v>304</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>-0.10531889999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:13">
       <c r="A306">
         <v>305</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>0.13774600000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:13">
       <c r="A307">
         <v>306</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>-9.1303700000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:13">
       <c r="A308">
         <v>307</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>-0.44584170000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:13">
       <c r="A309">
         <v>308</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>-0.89205829999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:13">
       <c r="A310">
         <v>309</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>-0.5376919</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:13">
       <c r="A311">
         <v>310</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>-0.65130509999999997</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:13">
       <c r="A312">
         <v>311</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>-1.2626446</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:13">
       <c r="A313">
         <v>312</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>-0.41124240000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:13">
       <c r="A314">
         <v>313</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>-0.51061140000000005</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:13">
       <c r="A315">
         <v>314</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>-1.21335E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:13">
       <c r="A316">
         <v>315</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>-0.52472099999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:13">
       <c r="A317">
         <v>316</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>-5.2519450000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:13">
       <c r="A318">
         <v>317</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>-16.434450900000002</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:13">
       <c r="A319">
         <v>318</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>-29.5297342</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:13">
       <c r="A320">
         <v>319</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>-29.246276999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:13">
       <c r="A321">
         <v>320</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>-22.723217099999999</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:13">
       <c r="A322">
         <v>321</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>-12.661473300000001</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:13">
       <c r="A323">
         <v>322</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>-18.854274700000001</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:13">
       <c r="A324">
         <v>323</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>-31.126375700000001</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:13">
       <c r="A325">
         <v>324</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>-31.207458599999999</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:13">
       <c r="A326">
         <v>325</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>-24.220392100000002</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:13">
       <c r="A327">
         <v>326</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>-7.4140601000000004</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:13">
       <c r="A328">
         <v>327</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>-4.0886512000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:13">
       <c r="A329">
         <v>328</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>-2.8579536000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:13">
       <c r="A330">
         <v>329</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>-1.2271247000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:13">
       <c r="A331">
         <v>330</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>-1.1359839</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:13">
       <c r="A332">
         <v>331</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>-1.6827827</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:13">
       <c r="A333">
         <v>332</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>-1.4452338</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:13">
       <c r="A334">
         <v>333</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>-1.1932959999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:13">
       <c r="A335">
         <v>334</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>-1.8332343</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:13">
       <c r="A336">
         <v>335</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>-2.5343909</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:13">
       <c r="A337">
         <v>336</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>-1.8108496999999999</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:13">
       <c r="A338">
         <v>337</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>-1.4517036000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:13">
       <c r="A339">
         <v>338</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>-0.70434330000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:13">
       <c r="A340">
         <v>339</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>-0.88822699999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:13">
       <c r="A341">
         <v>340</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>-1.6711860000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:13">
       <c r="A342">
         <v>341</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>-1.3226294999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:13">
       <c r="A343">
         <v>342</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>-1.9610418999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:13">
       <c r="A344">
         <v>343</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>-1.8695501999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:13">
       <c r="A345">
         <v>344</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>-1.8622107999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:13">
       <c r="A346">
         <v>345</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>-1.0398841000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:13">
       <c r="A347">
         <v>346</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>-1.599002</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:13">
       <c r="A348">
         <v>347</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>-13.3123357</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:13">
       <c r="A349">
         <v>348</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>-27.634391300000001</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:13">
       <c r="A350">
         <v>349</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>-30.331071699999999</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:13">
       <c r="A351">
         <v>350</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>-28.635421399999998</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:13">
       <c r="A352">
         <v>351</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>-14.9361636</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:13">
       <c r="A353">
         <v>352</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>-6.3234927000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:13">
       <c r="A354">
         <v>353</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>-4.6584535999999996</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:13">
       <c r="A355">
         <v>354</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>-5.0399843999999998</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:13">
       <c r="A356">
         <v>355</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>-16.346280499999999</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:13">
       <c r="A357">
         <v>356</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v>-18.346411499999999</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:13">
       <c r="A358">
         <v>357</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>-23.107089800000001</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:13">
       <c r="A359">
         <v>358</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>-27.599252199999999</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:13">
       <c r="A360">
         <v>359</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>-24.0133531</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:13">
       <c r="A361">
         <v>360</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>-8.2062013</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:13">
       <c r="A362">
         <v>361</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>-2.6873453</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:13">
       <c r="A363">
         <v>362</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>-2.5222261000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:13">
       <c r="A364">
         <v>363</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>-1.6266495999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:13">
       <c r="A365">
         <v>364</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>-1.2155893</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:13">
       <c r="A366">
         <v>365</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>-1.2395685000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:13">
       <c r="A367">
         <v>366</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>-0.76820160000000004</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:13">
       <c r="A368">
         <v>367</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>-1.5598581</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:13">
       <c r="A369">
         <v>368</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>-0.75260709999999997</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:13">
       <c r="A370">
         <v>369</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>-0.77572799999999997</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:13">
       <c r="A371">
         <v>370</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>-1.2105881999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:13">
       <c r="A372">
         <v>371</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>-1.4124810999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:13">
       <c r="A373">
         <v>372</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>-0.84448029999999996</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:13">
       <c r="A374">
         <v>373</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>-0.83924270000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:13">
       <c r="A375">
         <v>374</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>-0.37061480000000002</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:13">
       <c r="A376">
         <v>375</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>-0.45337460000000002</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:13">
       <c r="A377">
         <v>376</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>-1.0532014000000001</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:13">
       <c r="A378">
         <v>377</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>-0.73437280000000005</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:13">
       <c r="A379">
         <v>378</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>-0.61250470000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:13">
       <c r="A380">
         <v>379</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>-0.58901000000000003</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:13">
       <c r="A381">
         <v>380</v>
       </c>
@@ -16083,7 +16083,7 @@
         <v>-0.71874400000000005</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:13">
       <c r="A382">
         <v>381</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>-1.0233285999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:13">
       <c r="A383">
         <v>382</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>11.276631699999999</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:13">
       <c r="A384">
         <v>383</v>
       </c>
@@ -16206,7 +16206,7 @@
         <v>23.335770799999999</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:13">
       <c r="A385">
         <v>384</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>32.378920999999998</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:13">
       <c r="A386">
         <v>385</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>22.678448100000001</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:13">
       <c r="A387">
         <v>386</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>6.2596859</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:13">
       <c r="A388">
         <v>387</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>0.65366780000000002</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:13">
       <c r="A389">
         <v>388</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>-0.50764810000000005</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:13">
       <c r="A390">
         <v>389</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>19.430627099999999</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:13">
       <c r="A391">
         <v>390</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>18.903332899999999</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:13">
       <c r="A392">
         <v>391</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>34.472851300000002</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:13">
       <c r="A393">
         <v>392</v>
       </c>
@@ -16575,7 +16575,7 @@
         <v>24.5033323</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:13">
       <c r="A394">
         <v>393</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>7.4538298000000003</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:13">
       <c r="A395">
         <v>394</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>1.0340453000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:13">
       <c r="A396">
         <v>395</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>-0.23862929999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:13">
       <c r="A397">
         <v>396</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>-0.70840159999999996</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:13">
       <c r="A398">
         <v>397</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>-0.87583630000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:13">
       <c r="A399">
         <v>398</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>-2.4537999999999999E-3</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:13">
       <c r="A400">
         <v>399</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>-0.79032610000000003</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:13">
       <c r="A401">
         <v>400</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>-0.47517110000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:13">
       <c r="A402">
         <v>401</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>-0.45498369999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:13">
       <c r="A403">
         <v>402</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>-1.0843172000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:13">
       <c r="A404">
         <v>403</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>-1.3919037999999999</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:13">
       <c r="A405">
         <v>404</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>-1.6983155999999999</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:13">
       <c r="A406">
         <v>405</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>-1.5050325</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:13">
       <c r="A407">
         <v>406</v>
       </c>
@@ -17149,7 +17149,7 @@
         <v>-1.5134095999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:13">
       <c r="A408">
         <v>407</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>-1.5398531</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:13">
       <c r="A409">
         <v>408</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>-1.3273896999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:13">
       <c r="A410">
         <v>409</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>-1.2262849</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:13">
       <c r="A411">
         <v>410</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>-0.84438800000000003</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:13">
       <c r="A412">
         <v>411</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>-1.7749756999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:13">
       <c r="A413">
         <v>412</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>-1.2207002</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:13">
       <c r="A414">
         <v>413</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>-1.61131</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:13">
       <c r="A415">
         <v>414</v>
       </c>
@@ -17477,7 +17477,7 @@
         <v>-2.1603517000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:13">
       <c r="A416">
         <v>415</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>-1.3211336</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:13">
       <c r="A417">
         <v>416</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>3.2883873000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:13">
       <c r="A418">
         <v>417</v>
       </c>
@@ -17600,7 +17600,7 @@
         <v>19.724202900000002</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:13">
       <c r="A419">
         <v>418</v>
       </c>
@@ -17641,7 +17641,7 @@
         <v>17.892834000000001</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:13">
       <c r="A420">
         <v>419</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>18.206536499999999</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:13">
       <c r="A421">
         <v>420</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>21.435289999999998</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:13">
       <c r="A422">
         <v>421</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>17.467766300000001</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:13">
       <c r="A423">
         <v>422</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>17.5330029</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:13">
       <c r="A424">
         <v>423</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>23.702117699999999</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:13">
       <c r="A425">
         <v>424</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>28.724744099999999</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:13">
       <c r="A426">
         <v>425</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>32.051764499999997</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:13">
       <c r="A427">
         <v>426</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>28.164501999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:13">
       <c r="A428">
         <v>427</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>10.3364273</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:13">
       <c r="A429">
         <v>428</v>
       </c>
@@ -18051,7 +18051,7 @@
         <v>-1.6117538</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:13">
       <c r="A430">
         <v>429</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>-2.4724067999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:13">
       <c r="A431">
         <v>430</v>
       </c>
@@ -18133,7 +18133,7 @@
         <v>-2.8005623000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:13">
       <c r="A432">
         <v>431</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>-2.6048073</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:13">
       <c r="A433">
         <v>432</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>-2.6333373999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:13">
       <c r="A434">
         <v>433</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>-1.6880898</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:13">
       <c r="A435">
         <v>434</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>-1.4168037</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:13">
       <c r="A436">
         <v>435</v>
       </c>
@@ -18338,7 +18338,7 @@
         <v>-1.4555077000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:13">
       <c r="A437">
         <v>436</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>-1.1823372000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:13">
       <c r="A438">
         <v>437</v>
       </c>
@@ -18420,7 +18420,7 @@
         <v>-1.1445831</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:13">
       <c r="A439">
         <v>438</v>
       </c>
@@ -18461,7 +18461,7 @@
         <v>-0.2257942</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:13">
       <c r="A440">
         <v>439</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>-1.1782440000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:13">
       <c r="A441">
         <v>440</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>0.309137</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:13">
       <c r="A442">
         <v>441</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>-0.2958054</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:13">
       <c r="A443">
         <v>442</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>-0.38296740000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:13">
       <c r="A444">
         <v>443</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>-0.4112267</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:13">
       <c r="A445">
         <v>444</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>-0.1086105</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:13">
       <c r="A446">
         <v>445</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>-1.1654800000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:13">
       <c r="A447">
         <v>446</v>
       </c>
@@ -18789,7 +18789,7 @@
         <v>-0.99355159999999998</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:13">
       <c r="A448">
         <v>447</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>-1.5882744</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:13">
       <c r="A449">
         <v>448</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>-0.13034670000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:13">
       <c r="A450">
         <v>449</v>
       </c>
@@ -18912,7 +18912,7 @@
         <v>-1.0153063</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:13">
       <c r="A451">
         <v>450</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>17.4173787</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:13">
       <c r="A452">
         <v>451</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>20.892287499999998</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:13">
       <c r="A453">
         <v>452</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>34.9875896</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:13">
       <c r="A454">
         <v>453</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>22.9116228</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:13">
       <c r="A455">
         <v>454</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>6.7702042999999996</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:13">
       <c r="A456">
         <v>455</v>
       </c>
@@ -19158,7 +19158,7 @@
         <v>1.5666519999999999</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:13">
       <c r="A457">
         <v>456</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>14.0033201</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:13">
       <c r="A458">
         <v>457</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>21.6387915</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:13">
       <c r="A459">
         <v>458</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>34.046172900000002</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:13">
       <c r="A460">
         <v>459</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>32.218996300000001</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:13">
       <c r="A461">
         <v>460</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>27.1735845</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:13">
       <c r="A462">
         <v>461</v>
       </c>
@@ -19404,7 +19404,7 @@
         <v>19.477819</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:13">
       <c r="A463">
         <v>462</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>4.5789070000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:13">
       <c r="A464">
         <v>463</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>0.71596150000000003</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:13">
       <c r="A465">
         <v>464</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>0.4379921</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:13">
       <c r="A466">
         <v>465</v>
       </c>
@@ -19568,7 +19568,7 @@
         <v>0.89606090000000005</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:13">
       <c r="A467">
         <v>466</v>
       </c>
@@ -19609,7 +19609,7 @@
         <v>9.0610499999999997E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:13">
       <c r="A468">
         <v>467</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>-0.36684800000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:13">
       <c r="A469">
         <v>468</v>
       </c>
@@ -19691,7 +19691,7 @@
         <v>0.45924759999999998</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:13">
       <c r="A470">
         <v>469</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>-0.1291313</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:13">
       <c r="A471">
         <v>470</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>-3.2050285000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:13">
       <c r="A472">
         <v>471</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>-1.3261069999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:13">
       <c r="A473">
         <v>472</v>
       </c>
@@ -19855,7 +19855,7 @@
         <v>-1.2433434000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:13">
       <c r="A474">
         <v>473</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>-0.69814679999999996</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:13">
       <c r="A475">
         <v>474</v>
       </c>
@@ -19937,7 +19937,7 @@
         <v>-1.0693474000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:13">
       <c r="A476">
         <v>475</v>
       </c>
@@ -19978,7 +19978,7 @@
         <v>-1.4324303</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:13">
       <c r="A477">
         <v>476</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>-1.0451317</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:13">
       <c r="A478">
         <v>477</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>-1.5057944999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:13">
       <c r="A479">
         <v>478</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>-1.1486015000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:13">
       <c r="A480">
         <v>479</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>-1.1146507000000001</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:13">
       <c r="A481">
         <v>480</v>
       </c>
@@ -20183,7 +20183,7 @@
         <v>-1.5722771</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:13">
       <c r="A482">
         <v>481</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>-0.2113304</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:13">
       <c r="A483">
         <v>482</v>
       </c>
@@ -20265,7 +20265,7 @@
         <v>-0.82543560000000005</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:13">
       <c r="A484">
         <v>483</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>-1.5818748</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:13">
       <c r="A485">
         <v>484</v>
       </c>
@@ -20347,7 +20347,7 @@
         <v>-1.1394441</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:13">
       <c r="A486">
         <v>485</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>12.509842799999999</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:13">
       <c r="A487">
         <v>486</v>
       </c>
@@ -20429,7 +20429,7 @@
         <v>18.4057517</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:13">
       <c r="A488">
         <v>487</v>
       </c>
@@ -20470,7 +20470,7 @@
         <v>26.7346605</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:13">
       <c r="A489">
         <v>488</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>32.860635500000001</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:13">
       <c r="A490">
         <v>489</v>
       </c>
@@ -20552,7 +20552,7 @@
         <v>21.158531700000001</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:13">
       <c r="A491">
         <v>490</v>
       </c>
@@ -20593,7 +20593,7 @@
         <v>18.251822300000001</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:13">
       <c r="A492">
         <v>491</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>22.206023999999999</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:13">
       <c r="A493">
         <v>492</v>
       </c>
@@ -20675,7 +20675,7 @@
         <v>24.295193900000001</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:13">
       <c r="A494">
         <v>493</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>24.327719699999999</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:13">
       <c r="A495">
         <v>494</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>20.485462999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:13">
       <c r="A496">
         <v>495</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>5.5819612000000003</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:13">
       <c r="A497">
         <v>496</v>
       </c>
@@ -20839,7 +20839,7 @@
         <v>-6.8570599999999995E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:13">
       <c r="A498">
         <v>497</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>-1.4166616999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:13">
       <c r="A499">
         <v>498</v>
       </c>
@@ -20921,7 +20921,7 @@
         <v>-1.3590751000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:13">
       <c r="A500">
         <v>499</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>-1.2769140999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:13">
       <c r="A501">
         <v>500</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>-1.3065391</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:13">
       <c r="A502">
         <v>501</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>-1.2661643</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:13">
       <c r="A503">
         <v>502</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>-0.17722840000000001</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:13">
       <c r="A504">
         <v>503</v>
       </c>
@@ -21126,7 +21126,7 @@
         <v>-0.54568240000000001</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:13">
       <c r="A505">
         <v>504</v>
       </c>
@@ -21167,7 +21167,7 @@
         <v>-9.4285499999999994E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:13">
       <c r="A506">
         <v>505</v>
       </c>
@@ -21208,7 +21208,7 @@
         <v>-0.67313529999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:13">
       <c r="A507">
         <v>506</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>-0.60315850000000004</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:13">
       <c r="A508">
         <v>507</v>
       </c>
@@ -21290,7 +21290,7 @@
         <v>-0.29378650000000001</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:13">
       <c r="A509">
         <v>508</v>
       </c>
@@ -21331,7 +21331,7 @@
         <v>-0.1885009</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:13">
       <c r="A510">
         <v>509</v>
       </c>
@@ -21372,7 +21372,7 @@
         <v>-0.98411700000000002</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:13">
       <c r="A511">
         <v>510</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>-0.13705970000000001</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:13">
       <c r="A512">
         <v>511</v>
       </c>
@@ -21454,7 +21454,7 @@
         <v>-0.44429160000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:13">
       <c r="A513">
         <v>512</v>
       </c>
@@ -21495,7 +21495,7 @@
         <v>-0.59844350000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:13">
       <c r="A514">
         <v>513</v>
       </c>
@@ -21536,7 +21536,7 @@
         <v>-0.80456689999999997</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:13">
       <c r="A515">
         <v>514</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>-0.71855690000000005</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:13">
       <c r="A516">
         <v>515</v>
       </c>
@@ -21618,7 +21618,7 @@
         <v>-1.1193213</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:13">
       <c r="A517">
         <v>516</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>-0.87033990000000006</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:13">
       <c r="A518">
         <v>517</v>
       </c>
@@ -21700,7 +21700,7 @@
         <v>-1.5706963</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:13">
       <c r="A519">
         <v>518</v>
       </c>
@@ -21741,7 +21741,7 @@
         <v>-14.3291834</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:13">
       <c r="A520">
         <v>519</v>
       </c>
@@ -21782,7 +21782,7 @@
         <v>-19.624107500000001</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:13">
       <c r="A521">
         <v>520</v>
       </c>
@@ -21823,7 +21823,7 @@
         <v>-29.497137800000001</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:13">
       <c r="A522">
         <v>521</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>-25.8403864</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:13">
       <c r="A523">
         <v>522</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>-15.5387468</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:13">
       <c r="A524">
         <v>523</v>
       </c>
@@ -21946,7 +21946,7 @@
         <v>-28.288278600000002</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:13">
       <c r="A525">
         <v>524</v>
       </c>
@@ -21987,7 +21987,7 @@
         <v>-30.014874899999999</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:13">
       <c r="A526">
         <v>525</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>-27.889892700000001</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:13">
       <c r="A527">
         <v>526</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>-20.916498600000001</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:13">
       <c r="A528">
         <v>527</v>
       </c>
@@ -22110,7 +22110,7 @@
         <v>-6.1265255999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:13">
       <c r="A529">
         <v>528</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>-3.0323788</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:13">
       <c r="A530">
         <v>529</v>
       </c>
@@ -22192,7 +22192,7 @@
         <v>-2.3019101000000002</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:13">
       <c r="A531">
         <v>530</v>
       </c>
@@ -22233,7 +22233,7 @@
         <v>-1.9471738000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:13">
       <c r="A532">
         <v>531</v>
       </c>
@@ -22274,7 +22274,7 @@
         <v>-2.0419155999999998</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:13">
       <c r="A533">
         <v>532</v>
       </c>
@@ -22315,7 +22315,7 @@
         <v>-2.5640866</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:13">
       <c r="A534">
         <v>533</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>-1.2533566</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:13">
       <c r="A535">
         <v>534</v>
       </c>
@@ -22397,7 +22397,7 @@
         <v>-1.5684963999999999</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:13">
       <c r="A536">
         <v>535</v>
       </c>
@@ -22438,7 +22438,7 @@
         <v>-1.4513393999999999</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:13">
       <c r="A537">
         <v>536</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>-1.8997037000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:13">
       <c r="A538">
         <v>537</v>
       </c>
@@ -22520,7 +22520,7 @@
         <v>-1.7072598000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:13">
       <c r="A539">
         <v>538</v>
       </c>
@@ -22561,7 +22561,7 @@
         <v>-1.8892666</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:13">
       <c r="A540">
         <v>539</v>
       </c>
@@ -22602,7 +22602,7 @@
         <v>-1.8408504999999999</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:13">
       <c r="A541">
         <v>540</v>
       </c>
@@ -22643,7 +22643,7 @@
         <v>-1.4251095</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:13">
       <c r="A542">
         <v>541</v>
       </c>
@@ -22684,7 +22684,7 @@
         <v>-1.6001584</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:13">
       <c r="A543">
         <v>542</v>
       </c>
@@ -22725,7 +22725,7 @@
         <v>-2.0384975999999999</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:13">
       <c r="A544">
         <v>543</v>
       </c>
@@ -22766,7 +22766,7 @@
         <v>-2.4293209999999998</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:13">
       <c r="A545">
         <v>544</v>
       </c>
@@ -22807,7 +22807,7 @@
         <v>-2.0466763000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:13">
       <c r="A546">
         <v>545</v>
       </c>
@@ -22848,7 +22848,7 @@
         <v>-2.287048</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:13">
       <c r="A547">
         <v>546</v>
       </c>
@@ -22889,7 +22889,7 @@
         <v>-1.7683101999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:13">
       <c r="A548">
         <v>547</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>-1.7653958000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:13">
       <c r="A549">
         <v>548</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>-2.0579622</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:13">
       <c r="A550">
         <v>549</v>
       </c>
@@ -23012,7 +23012,7 @@
         <v>2.2965201999999998</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:13">
       <c r="A551">
         <v>550</v>
       </c>
@@ -23053,7 +23053,7 @@
         <v>13.757055100000001</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:13">
       <c r="A552">
         <v>551</v>
       </c>
@@ -23094,7 +23094,7 @@
         <v>6.6903128000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:13">
       <c r="A553">
         <v>552</v>
       </c>
@@ -23135,7 +23135,7 @@
         <v>9.1880427999999998</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:13">
       <c r="A554">
         <v>553</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>27.938106600000001</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:13">
       <c r="A555">
         <v>554</v>
       </c>
@@ -23217,7 +23217,7 @@
         <v>28.2432512</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:13">
       <c r="A556">
         <v>555</v>
       </c>
@@ -23258,7 +23258,7 @@
         <v>29.5686505</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:13">
       <c r="A557">
         <v>556</v>
       </c>
@@ -23299,7 +23299,7 @@
         <v>6.0128959000000002</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:13">
       <c r="A558">
         <v>557</v>
       </c>
@@ -23340,7 +23340,7 @@
         <v>6.100098</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:13">
       <c r="A559">
         <v>558</v>
       </c>
@@ -23381,7 +23381,7 @@
         <v>21.0637443</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:13">
       <c r="A560">
         <v>559</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>26.070628599999999</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:13">
       <c r="A561">
         <v>560</v>
       </c>
@@ -23463,7 +23463,7 @@
         <v>42.443250599999999</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:13">
       <c r="A562">
         <v>561</v>
       </c>
@@ -23504,7 +23504,7 @@
         <v>37.877079799999997</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:13">
       <c r="A563">
         <v>562</v>
       </c>
@@ -23545,7 +23545,7 @@
         <v>23.200412100000001</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:13">
       <c r="A564">
         <v>563</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v>6.5410339999999998</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:13">
       <c r="A565">
         <v>564</v>
       </c>
@@ -23627,7 +23627,7 @@
         <v>2.8884040999999998</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:13">
       <c r="A566">
         <v>565</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>3.9524490999999999</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:13">
       <c r="A567">
         <v>566</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>5.6901162000000003</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:13">
       <c r="A568">
         <v>567</v>
       </c>
@@ -23750,7 +23750,7 @@
         <v>5.6020881999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:13">
       <c r="A569">
         <v>568</v>
       </c>
@@ -23791,7 +23791,7 @@
         <v>5.1245415000000003</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:13">
       <c r="A570">
         <v>569</v>
       </c>
@@ -23832,7 +23832,7 @@
         <v>5.2132981000000003</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:13">
       <c r="A571">
         <v>570</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>5.5807221</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:13">
       <c r="A572">
         <v>571</v>
       </c>
@@ -23914,7 +23914,7 @@
         <v>4.4676850000000004</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:13">
       <c r="A573">
         <v>572</v>
       </c>
@@ -23955,7 +23955,7 @@
         <v>4.4409324999999997</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:13">
       <c r="A574">
         <v>573</v>
       </c>
@@ -23996,7 +23996,7 @@
         <v>3.5677788000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:13">
       <c r="A575">
         <v>574</v>
       </c>
@@ -24037,7 +24037,7 @@
         <v>3.2061989</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:13">
       <c r="A576">
         <v>575</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>3.7554658000000001</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:13">
       <c r="A577">
         <v>576</v>
       </c>
@@ -24119,7 +24119,7 @@
         <v>4.1426232000000001</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:13">
       <c r="A578">
         <v>577</v>
       </c>
@@ -24160,7 +24160,7 @@
         <v>1.6107743000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:13">
       <c r="A579">
         <v>578</v>
       </c>
@@ -24201,7 +24201,7 @@
         <v>3.3028938999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:13">
       <c r="A580">
         <v>579</v>
       </c>
@@ -24242,7 +24242,7 @@
         <v>2.8128388000000002</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:13">
       <c r="A581">
         <v>580</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>0.7837556</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:13">
       <c r="A582">
         <v>581</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>1.4576789999999999</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:13">
       <c r="A583">
         <v>582</v>
       </c>
@@ -24365,7 +24365,7 @@
         <v>0.91913920000000005</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:13">
       <c r="A584">
         <v>583</v>
       </c>
@@ -24406,7 +24406,7 @@
         <v>0.1813882</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:13">
       <c r="A585">
         <v>584</v>
       </c>
@@ -24447,7 +24447,7 @@
         <v>0.2422996</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:13">
       <c r="A586">
         <v>585</v>
       </c>
@@ -24488,7 +24488,7 @@
         <v>22.0395672</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:13">
       <c r="A587">
         <v>586</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>20.799226000000001</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:13">
       <c r="A588">
         <v>587</v>
       </c>
@@ -24570,7 +24570,7 @@
         <v>33.731696100000001</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:13">
       <c r="A589">
         <v>588</v>
       </c>
@@ -24611,7 +24611,7 @@
         <v>24.912818900000001</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:13">
       <c r="A590">
         <v>589</v>
       </c>
@@ -24652,7 +24652,7 @@
         <v>8.8789444</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:13">
       <c r="A591">
         <v>590</v>
       </c>
@@ -24693,7 +24693,7 @@
         <v>0.99054710000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:13">
       <c r="A592">
         <v>591</v>
       </c>
@@ -24734,7 +24734,7 @@
         <v>6.5223699999999996E-2</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:13">
       <c r="A593">
         <v>592</v>
       </c>
@@ -24775,7 +24775,7 @@
         <v>12.132562</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:13">
       <c r="A594">
         <v>593</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>14.0169973</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:13">
       <c r="A595">
         <v>594</v>
       </c>
@@ -24857,7 +24857,7 @@
         <v>26.8457854</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:13">
       <c r="A596">
         <v>595</v>
       </c>
@@ -24898,7 +24898,7 @@
         <v>26.559509800000001</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:13">
       <c r="A597">
         <v>596</v>
       </c>
@@ -24939,7 +24939,7 @@
         <v>15.577243899999999</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:13">
       <c r="A598">
         <v>597</v>
       </c>
@@ -24980,7 +24980,7 @@
         <v>1.8892404</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:13">
       <c r="A599">
         <v>598</v>
       </c>
@@ -25021,7 +25021,7 @@
         <v>-1.3889426</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:13">
       <c r="A600">
         <v>599</v>
       </c>
@@ -25062,7 +25062,7 @@
         <v>-2.0520285</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:13">
       <c r="A601">
         <v>600</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>-2.0367087000000001</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:13">
       <c r="A602">
         <v>601</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>-1.6254995999999999</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:13">
       <c r="A603">
         <v>602</v>
       </c>
@@ -25185,7 +25185,7 @@
         <v>-1.578533</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:13">
       <c r="A604">
         <v>603</v>
       </c>
@@ -25226,7 +25226,7 @@
         <v>-2.0132254000000001</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:13">
       <c r="A605">
         <v>604</v>
       </c>
@@ -25267,7 +25267,7 @@
         <v>-1.5456198000000001</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:13">
       <c r="A606">
         <v>605</v>
       </c>
@@ -25308,7 +25308,7 @@
         <v>-1.6478537</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:13">
       <c r="A607">
         <v>606</v>
       </c>
@@ -25349,7 +25349,7 @@
         <v>-0.43447479999999999</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:13">
       <c r="A608">
         <v>607</v>
       </c>
@@ -25390,7 +25390,7 @@
         <v>-1.7412221999999999</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:13">
       <c r="A609">
         <v>608</v>
       </c>
@@ -25431,7 +25431,7 @@
         <v>-1.0388143999999999</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:13">
       <c r="A610">
         <v>609</v>
       </c>
@@ -25472,7 +25472,7 @@
         <v>-1.3202628000000001</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:13">
       <c r="A611">
         <v>610</v>
       </c>
@@ -25513,7 +25513,7 @@
         <v>-1.3831290000000001</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:13">
       <c r="A612">
         <v>611</v>
       </c>
@@ -25554,7 +25554,7 @@
         <v>-0.83184420000000003</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:13">
       <c r="A613">
         <v>612</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>-0.82865509999999998</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:13">
       <c r="A614">
         <v>613</v>
       </c>
@@ -25636,7 +25636,7 @@
         <v>-1.4767110999999999</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:13">
       <c r="A615">
         <v>614</v>
       </c>
@@ -25677,7 +25677,7 @@
         <v>-0.94826869999999996</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:13">
       <c r="A616">
         <v>615</v>
       </c>
@@ -25718,7 +25718,7 @@
         <v>-0.54572659999999995</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:13">
       <c r="A617">
         <v>616</v>
       </c>
@@ -25759,7 +25759,7 @@
         <v>-0.55623990000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:13">
       <c r="A618">
         <v>617</v>
       </c>
@@ -25800,7 +25800,7 @@
         <v>-1.5594748</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:13">
       <c r="A619">
         <v>618</v>
       </c>
@@ -25841,7 +25841,7 @@
         <v>-1.7457916</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:13">
       <c r="A620">
         <v>619</v>
       </c>
@@ -25882,7 +25882,7 @@
         <v>-21.115478</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:13">
       <c r="A621">
         <v>620</v>
       </c>
@@ -25923,7 +25923,7 @@
         <v>-24.364361299999999</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:13">
       <c r="A622">
         <v>621</v>
       </c>
@@ -25964,7 +25964,7 @@
         <v>-32.667577999999999</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:13">
       <c r="A623">
         <v>622</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>-26.1392284</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:13">
       <c r="A624">
         <v>623</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>-18.7905503</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:13">
       <c r="A625">
         <v>624</v>
       </c>
@@ -26087,7 +26087,7 @@
         <v>-22.1453007</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:13">
       <c r="A626">
         <v>625</v>
       </c>
@@ -26128,7 +26128,7 @@
         <v>-32.759241299999999</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:13">
       <c r="A627">
         <v>626</v>
       </c>
@@ -26169,7 +26169,7 @@
         <v>-30.026052499999999</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:13">
       <c r="A628">
         <v>627</v>
       </c>
@@ -26210,7 +26210,7 @@
         <v>-17.9017932</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:13">
       <c r="A629">
         <v>628</v>
       </c>
@@ -26251,7 +26251,7 @@
         <v>-2.9329592999999998</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:13">
       <c r="A630">
         <v>629</v>
       </c>
@@ -26292,7 +26292,7 @@
         <v>-2.0396144</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:13">
       <c r="A631">
         <v>630</v>
       </c>
@@ -26333,7 +26333,7 @@
         <v>-2.4213817</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:13">
       <c r="A632">
         <v>631</v>
       </c>
@@ -26374,7 +26374,7 @@
         <v>-1.5559642</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:13">
       <c r="A633">
         <v>632</v>
       </c>
@@ -26415,7 +26415,7 @@
         <v>-1.3709552</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:13">
       <c r="A634">
         <v>633</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>-1.0190341000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:13">
       <c r="A635">
         <v>634</v>
       </c>
@@ -26497,7 +26497,7 @@
         <v>-1.0965373</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:13">
       <c r="A636">
         <v>635</v>
       </c>
@@ -26538,7 +26538,7 @@
         <v>-2.3618342999999999</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:13">
       <c r="A637">
         <v>636</v>
       </c>
@@ -26579,7 +26579,7 @@
         <v>-1.9582279</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:13">
       <c r="A638">
         <v>637</v>
       </c>
@@ -26620,7 +26620,7 @@
         <v>-1.6795336999999999</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:13">
       <c r="A639">
         <v>638</v>
       </c>
@@ -26661,7 +26661,7 @@
         <v>-2.0838801999999998</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:13">
       <c r="A640">
         <v>639</v>
       </c>
@@ -26702,7 +26702,7 @@
         <v>-1.7913730000000001</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:13">
       <c r="A641">
         <v>640</v>
       </c>
@@ -26743,7 +26743,7 @@
         <v>-1.4289004999999999</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:13">
       <c r="A642">
         <v>641</v>
       </c>
@@ -26784,7 +26784,7 @@
         <v>-1.9455631</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:13">
       <c r="A643">
         <v>642</v>
       </c>
@@ -26825,7 +26825,7 @@
         <v>-0.53780629999999996</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:13">
       <c r="A644">
         <v>643</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>-0.59984470000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:13">
       <c r="A645">
         <v>644</v>
       </c>
@@ -26907,7 +26907,7 @@
         <v>-1.1461208000000001</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:13">
       <c r="A646">
         <v>645</v>
       </c>
@@ -26948,7 +26948,7 @@
         <v>-1.1453234999999999</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:13">
       <c r="A647">
         <v>646</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>-1.4551494</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:13">
       <c r="A648">
         <v>647</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>-0.82687160000000004</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:13">
       <c r="A649">
         <v>648</v>
       </c>
@@ -27071,7 +27071,7 @@
         <v>-16.472140799999998</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:13">
       <c r="A650">
         <v>649</v>
       </c>
@@ -27112,7 +27112,7 @@
         <v>-25.217638099999999</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:13">
       <c r="A651">
         <v>650</v>
       </c>
@@ -27153,7 +27153,7 @@
         <v>-35.638258700000002</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:13">
       <c r="A652">
         <v>651</v>
       </c>
@@ -27194,7 +27194,7 @@
         <v>-27.710391399999999</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:13">
       <c r="A653">
         <v>652</v>
       </c>
@@ -27235,7 +27235,7 @@
         <v>-12.852929899999999</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:13">
       <c r="A654">
         <v>653</v>
       </c>
@@ -27276,7 +27276,7 @@
         <v>-5.0975817000000001</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:13">
       <c r="A655">
         <v>654</v>
       </c>
@@ -27317,7 +27317,7 @@
         <v>-1.7305314999999999</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:13">
       <c r="A656">
         <v>655</v>
       </c>
@@ -27358,7 +27358,7 @@
         <v>-2.2807786999999999</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:13">
       <c r="A657">
         <v>656</v>
       </c>
@@ -27399,7 +27399,7 @@
         <v>-1.2431353000000001</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:13">
       <c r="A658">
         <v>657</v>
       </c>
@@ -27440,7 +27440,7 @@
         <v>-1.3406389999999999</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:13">
       <c r="A659">
         <v>658</v>
       </c>
@@ -27481,7 +27481,7 @@
         <v>-6.0818477</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:13">
       <c r="A660">
         <v>659</v>
       </c>
@@ -27522,7 +27522,7 @@
         <v>-16.226558699999998</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:13">
       <c r="A661">
         <v>660</v>
       </c>
@@ -27563,7 +27563,7 @@
         <v>-27.985261000000001</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:13">
       <c r="A662">
         <v>661</v>
       </c>
@@ -27604,7 +27604,7 @@
         <v>-31.9204534</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:13">
       <c r="A663">
         <v>662</v>
       </c>
@@ -27645,7 +27645,7 @@
         <v>-25.547075</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:13">
       <c r="A664">
         <v>663</v>
       </c>
@@ -27686,7 +27686,7 @@
         <v>-7.8076407999999997</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:13">
       <c r="A665">
         <v>664</v>
       </c>
@@ -27727,7 +27727,7 @@
         <v>-1.9977958</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:13">
       <c r="A666">
         <v>665</v>
       </c>
@@ -27768,7 +27768,7 @@
         <v>-2.0114524999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:13">
       <c r="A667">
         <v>666</v>
       </c>
@@ -27809,7 +27809,7 @@
         <v>-2.0752342000000001</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:13">
       <c r="A668">
         <v>667</v>
       </c>
@@ -27850,7 +27850,7 @@
         <v>-2.0057914999999999</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:13">
       <c r="A669">
         <v>668</v>
       </c>
@@ -27891,7 +27891,7 @@
         <v>-2.2016532999999998</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:13">
       <c r="A670">
         <v>669</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>-1.2961357</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:13">
       <c r="A671">
         <v>670</v>
       </c>
@@ -27973,7 +27973,7 @@
         <v>-1.5001152</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:13">
       <c r="A672">
         <v>671</v>
       </c>
@@ -28014,7 +28014,7 @@
         <v>-1.5667503</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:13">
       <c r="A673">
         <v>672</v>
       </c>
@@ -28055,7 +28055,7 @@
         <v>-2.1635521</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:13">
       <c r="A674">
         <v>673</v>
       </c>
@@ -28096,7 +28096,7 @@
         <v>-1.074044</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:13">
       <c r="A675">
         <v>674</v>
       </c>
@@ -28137,7 +28137,7 @@
         <v>-1.4559868</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:13">
       <c r="A676">
         <v>675</v>
       </c>
@@ -28178,7 +28178,7 @@
         <v>-0.56952740000000002</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:13">
       <c r="A677">
         <v>676</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>-0.90197070000000001</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:13">
       <c r="A678">
         <v>677</v>
       </c>
@@ -28260,7 +28260,7 @@
         <v>-0.85184550000000003</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:13">
       <c r="A679">
         <v>678</v>
       </c>
@@ -28301,7 +28301,7 @@
         <v>-0.57111429999999996</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:13">
       <c r="A680">
         <v>679</v>
       </c>
@@ -28342,7 +28342,7 @@
         <v>-0.58821939999999995</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:13">
       <c r="A681">
         <v>680</v>
       </c>
@@ -28383,7 +28383,7 @@
         <v>3.7101000000000002E-2</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:13">
       <c r="A682">
         <v>681</v>
       </c>
@@ -28424,7 +28424,7 @@
         <v>-0.20447609999999999</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:13">
       <c r="A683">
         <v>682</v>
       </c>
@@ -28465,7 +28465,7 @@
         <v>-0.25969769999999998</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:13">
       <c r="A684">
         <v>683</v>
       </c>
@@ -28506,7 +28506,7 @@
         <v>-1.169503</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:13">
       <c r="A685">
         <v>684</v>
       </c>
@@ -28547,7 +28547,7 @@
         <v>-0.92484359999999999</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:13">
       <c r="A686">
         <v>685</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>5.4893954000000003</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:13">
       <c r="A687">
         <v>686</v>
       </c>
@@ -28629,7 +28629,7 @@
         <v>18.324704100000002</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:13">
       <c r="A688">
         <v>687</v>
       </c>
@@ -28670,7 +28670,7 @@
         <v>22.128682000000001</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:13">
       <c r="A689">
         <v>688</v>
       </c>
@@ -28711,7 +28711,7 @@
         <v>36.097599299999999</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:13">
       <c r="A690">
         <v>689</v>
       </c>
@@ -28752,7 +28752,7 @@
         <v>28.49811</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:13">
       <c r="A691">
         <v>690</v>
       </c>
@@ -28793,7 +28793,7 @@
         <v>13.7930302</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:13">
       <c r="A692">
         <v>691</v>
       </c>
@@ -28834,7 +28834,7 @@
         <v>22.2369612</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:13">
       <c r="A693">
         <v>692</v>
       </c>
@@ -28875,7 +28875,7 @@
         <v>31.1400407</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:13">
       <c r="A694">
         <v>693</v>
       </c>
@@ -28916,7 +28916,7 @@
         <v>30.640054299999999</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:13">
       <c r="A695">
         <v>694</v>
       </c>
@@ -28957,7 +28957,7 @@
         <v>16.428312600000002</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:13">
       <c r="A696">
         <v>695</v>
       </c>
@@ -28998,7 +28998,7 @@
         <v>2.7269367999999998</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:13">
       <c r="A697">
         <v>696</v>
       </c>
@@ -29039,7 +29039,7 @@
         <v>-0.58247709999999997</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:13">
       <c r="A698">
         <v>697</v>
       </c>
@@ -29080,7 +29080,7 @@
         <v>-0.26898909999999998</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:13">
       <c r="A699">
         <v>698</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>-0.86372709999999997</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:13">
       <c r="A700">
         <v>699</v>
       </c>
@@ -29162,7 +29162,7 @@
         <v>-7.9047699999999999E-2</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:13">
       <c r="A701">
         <v>700</v>
       </c>
@@ -29203,7 +29203,7 @@
         <v>-1.114719</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:13">
       <c r="A702">
         <v>701</v>
       </c>
@@ -29244,7 +29244,7 @@
         <v>0.92572829999999995</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:13">
       <c r="A703">
         <v>702</v>
       </c>
@@ -29285,7 +29285,7 @@
         <v>-0.91629369999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:13">
       <c r="A704">
         <v>703</v>
       </c>
@@ -29326,7 +29326,7 @@
         <v>-1.3661762</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:13">
       <c r="A705">
         <v>704</v>
       </c>
@@ -29367,7 +29367,7 @@
         <v>-0.86554679999999995</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:13">
       <c r="A706">
         <v>705</v>
       </c>
@@ -29408,7 +29408,7 @@
         <v>-0.76719619999999999</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:13">
       <c r="A707">
         <v>706</v>
       </c>
@@ -29449,7 +29449,7 @@
         <v>-1.4487452999999999</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:13">
       <c r="A708">
         <v>707</v>
       </c>
@@ -29490,7 +29490,7 @@
         <v>-1.0225673</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:13">
       <c r="A709">
         <v>708</v>
       </c>
@@ -29531,7 +29531,7 @@
         <v>-1.2677913000000001</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:13">
       <c r="A710">
         <v>709</v>
       </c>
@@ -29572,7 +29572,7 @@
         <v>-1.5211787999999999</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:13">
       <c r="A711">
         <v>710</v>
       </c>
@@ -29613,7 +29613,7 @@
         <v>-1.9342037000000001</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:13">
       <c r="A712">
         <v>711</v>
       </c>
@@ -29654,7 +29654,7 @@
         <v>-1.4931255000000001</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:13">
       <c r="A713">
         <v>712</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>-1.0808025000000001</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:13">
       <c r="A714">
         <v>713</v>
       </c>
@@ -29736,7 +29736,7 @@
         <v>-1.2419735000000001</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:13">
       <c r="A715">
         <v>714</v>
       </c>
@@ -29777,7 +29777,7 @@
         <v>-1.2089763</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:13">
       <c r="A716">
         <v>715</v>
       </c>
@@ -29818,7 +29818,7 @@
         <v>-1.7117572000000001</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:13">
       <c r="A717">
         <v>716</v>
       </c>
@@ -29859,7 +29859,7 @@
         <v>-1.1851023000000001</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:13">
       <c r="A718">
         <v>717</v>
       </c>
@@ -29900,7 +29900,7 @@
         <v>19.484269399999999</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:13">
       <c r="A719">
         <v>718</v>
       </c>
@@ -29941,7 +29941,7 @@
         <v>21.3619223</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:13">
       <c r="A720">
         <v>719</v>
       </c>
@@ -29982,7 +29982,7 @@
         <v>31.940639699999998</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:13">
       <c r="A721">
         <v>720</v>
       </c>
@@ -30023,7 +30023,7 @@
         <v>20.192084399999999</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:13">
       <c r="A722">
         <v>721</v>
       </c>
@@ -30064,7 +30064,7 @@
         <v>2.1283026</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:13">
       <c r="A723">
         <v>722</v>
       </c>
@@ -30105,7 +30105,7 @@
         <v>-0.48976989999999998</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:13">
       <c r="A724">
         <v>723</v>
       </c>
@@ -30146,7 +30146,7 @@
         <v>-0.8809747</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:13">
       <c r="A725">
         <v>724</v>
       </c>
@@ -30187,7 +30187,7 @@
         <v>-1.0206537</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:13">
       <c r="A726">
         <v>725</v>
       </c>
@@ -30228,7 +30228,7 @@
         <v>-0.7081537</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:13">
       <c r="A727">
         <v>726</v>
       </c>
@@ -30269,7 +30269,7 @@
         <v>-1.4702997</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:13">
       <c r="A728">
         <v>727</v>
       </c>
@@ -30310,7 +30310,7 @@
         <v>-1.1028374999999999</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:13">
       <c r="A729">
         <v>728</v>
       </c>
@@ -30351,7 +30351,7 @@
         <v>-2.0012444999999999</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:13">
       <c r="A730">
         <v>729</v>
       </c>
@@ -30392,7 +30392,7 @@
         <v>-2.0683527000000002</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:13">
       <c r="A731">
         <v>730</v>
       </c>
@@ -30433,7 +30433,7 @@
         <v>-1.477868</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:13">
       <c r="A732">
         <v>731</v>
       </c>
@@ -30474,7 +30474,7 @@
         <v>-1.7267083999999999</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:13">
       <c r="A733">
         <v>732</v>
       </c>
@@ -30515,7 +30515,7 @@
         <v>-2.1025323</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:13">
       <c r="A734">
         <v>733</v>
       </c>
@@ -30556,7 +30556,7 @@
         <v>-0.43419740000000001</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:13">
       <c r="A735">
         <v>734</v>
       </c>
@@ -30597,7 +30597,7 @@
         <v>-0.3434991</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:13">
       <c r="A736">
         <v>735</v>
       </c>
@@ -30638,7 +30638,7 @@
         <v>-0.696496</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:13">
       <c r="A737">
         <v>736</v>
       </c>
@@ -30679,7 +30679,7 @@
         <v>-0.47814269999999998</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:13">
       <c r="A738">
         <v>737</v>
       </c>
@@ -30720,7 +30720,7 @@
         <v>-0.2821283</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:13">
       <c r="A739">
         <v>738</v>
       </c>
@@ -30761,7 +30761,7 @@
         <v>-1.0006036</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:13">
       <c r="A740">
         <v>739</v>
       </c>
@@ -30802,7 +30802,7 @@
         <v>-0.34502500000000003</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:13">
       <c r="A741">
         <v>740</v>
       </c>
@@ -30843,7 +30843,7 @@
         <v>36.313385099999998</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:13">
       <c r="A742">
         <v>741</v>
       </c>
@@ -30884,7 +30884,7 @@
         <v>22.086761500000001</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:13">
       <c r="A743">
         <v>742</v>
       </c>
@@ -30925,7 +30925,7 @@
         <v>49.515124299999997</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:13">
       <c r="A744">
         <v>743</v>
       </c>
@@ -30966,7 +30966,7 @@
         <v>35.566943100000003</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:13">
       <c r="A745">
         <v>744</v>
       </c>
@@ -31007,7 +31007,7 @@
         <v>13.512408199999999</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:13">
       <c r="A746">
         <v>745</v>
       </c>
@@ -31048,7 +31048,7 @@
         <v>8.3697748000000001</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:13">
       <c r="A747">
         <v>746</v>
       </c>
@@ -31089,7 +31089,7 @@
         <v>-0.93675900000000001</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:13">
       <c r="A748">
         <v>747</v>
       </c>
@@ -31130,7 +31130,7 @@
         <v>2.1303184000000002</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:13">
       <c r="A749">
         <v>748</v>
       </c>
@@ -31171,7 +31171,7 @@
         <v>-0.65869840000000002</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:13">
       <c r="A750">
         <v>749</v>
       </c>
@@ -31212,7 +31212,7 @@
         <v>-2.1930459</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:13">
       <c r="A751">
         <v>750</v>
       </c>
@@ -31253,7 +31253,7 @@
         <v>-2.7386544000000002</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:13">
       <c r="A752">
         <v>751</v>
       </c>
@@ -31294,7 +31294,7 @@
         <v>-1.8401864000000001</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:13">
       <c r="A753">
         <v>752</v>
       </c>
@@ -31335,7 +31335,7 @@
         <v>-0.6611245</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:13">
       <c r="A754">
         <v>753</v>
       </c>
@@ -31376,7 +31376,7 @@
         <v>-8.7300600000000006E-2</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:13">
       <c r="A755">
         <v>754</v>
       </c>
@@ -31417,7 +31417,7 @@
         <v>9.3561800000000001E-2</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:13">
       <c r="A756">
         <v>755</v>
       </c>
@@ -31458,7 +31458,7 @@
         <v>0.47226970000000001</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:13">
       <c r="A757">
         <v>756</v>
       </c>
@@ -31499,7 +31499,7 @@
         <v>-0.57390339999999995</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:13">
       <c r="A758">
         <v>757</v>
       </c>
@@ -31540,7 +31540,7 @@
         <v>0.1775157</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:13">
       <c r="A759">
         <v>758</v>
       </c>
@@ -31581,7 +31581,7 @@
         <v>-1.3184560000000001</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:13">
       <c r="A760">
         <v>759</v>
       </c>
@@ -31622,7 +31622,7 @@
         <v>-0.81673169999999995</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:13">
       <c r="A761">
         <v>760</v>
       </c>
@@ -31663,7 +31663,7 @@
         <v>-1.0196736</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:13">
       <c r="A762">
         <v>761</v>
       </c>
@@ -31704,7 +31704,7 @@
         <v>-0.27359509999999998</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:13">
       <c r="A763">
         <v>762</v>
       </c>
@@ -31745,7 +31745,7 @@
         <v>-0.26401259999999999</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:13">
       <c r="A764">
         <v>763</v>
       </c>
@@ -31786,7 +31786,7 @@
         <v>-0.3076528</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:13">
       <c r="A765">
         <v>764</v>
       </c>
@@ -31827,7 +31827,7 @@
         <v>8.6451299999999995E-2</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:13">
       <c r="A766">
         <v>765</v>
       </c>
@@ -31868,7 +31868,7 @@
         <v>-0.39816790000000002</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:13">
       <c r="A767">
         <v>766</v>
       </c>
@@ -31909,7 +31909,7 @@
         <v>-0.42863970000000001</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:13">
       <c r="A768">
         <v>767</v>
       </c>
@@ -31950,7 +31950,7 @@
         <v>-0.33583570000000001</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:13">
       <c r="A769">
         <v>768</v>
       </c>
@@ -31991,7 +31991,7 @@
         <v>-0.16245009999999999</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:13">
       <c r="A770">
         <v>769</v>
       </c>
@@ -32032,7 +32032,7 @@
         <v>-6.3100100000000006E-2</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:13">
       <c r="A771">
         <v>770</v>
       </c>
@@ -32073,7 +32073,7 @@
         <v>-0.71329240000000005</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:13">
       <c r="A772">
         <v>771</v>
       </c>
@@ -32114,7 +32114,7 @@
         <v>-1.0286611000000001</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:13">
       <c r="A773">
         <v>772</v>
       </c>
@@ -32155,7 +32155,7 @@
         <v>-1.3388112000000001</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:13">
       <c r="A774">
         <v>773</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>-1.1697438</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:13">
       <c r="A775">
         <v>774</v>
       </c>
@@ -32237,7 +32237,7 @@
         <v>-0.73148089999999999</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:13">
       <c r="A776">
         <v>775</v>
       </c>
@@ -32278,7 +32278,7 @@
         <v>4.3162100000000002E-2</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:13">
       <c r="A777">
         <v>776</v>
       </c>
@@ -32319,7 +32319,7 @@
         <v>18.2591514</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:13">
       <c r="A778">
         <v>777</v>
       </c>
@@ -32360,7 +32360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:13">
       <c r="A779">
         <v>778</v>
       </c>
@@ -32401,7 +32401,7 @@
         <v>34.279212200000003</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:13">
       <c r="A780">
         <v>779</v>
       </c>
@@ -32442,7 +32442,7 @@
         <v>36.3450585</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:13">
       <c r="A781">
         <v>780</v>
       </c>
@@ -32483,7 +32483,7 @@
         <v>16.532497500000002</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:13">
       <c r="A782">
         <v>781</v>
       </c>
@@ -32524,7 +32524,7 @@
         <v>8.7087348000000002</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:13">
       <c r="A783">
         <v>782</v>
       </c>
@@ -32565,7 +32565,7 @@
         <v>-2.4623162000000001</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:13">
       <c r="A784">
         <v>783</v>
       </c>
@@ -32606,7 +32606,7 @@
         <v>0.84803229999999996</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:13">
       <c r="A785">
         <v>784</v>
       </c>
@@ -32647,7 +32647,7 @@
         <v>1.6647590000000001</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:13">
       <c r="A786">
         <v>785</v>
       </c>
@@ -32688,7 +32688,7 @@
         <v>4.2001135999999999</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:13">
       <c r="A787">
         <v>786</v>
       </c>
@@ -32729,7 +32729,7 @@
         <v>2.5132696999999999</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:13">
       <c r="A788">
         <v>787</v>
       </c>
@@ -32770,7 +32770,7 @@
         <v>2.6093085</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:13">
       <c r="A789">
         <v>788</v>
       </c>
@@ -32811,7 +32811,7 @@
         <v>0.71885140000000003</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:13">
       <c r="A790">
         <v>789</v>
       </c>
@@ -32852,7 +32852,7 @@
         <v>1.2773994</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:13">
       <c r="A791">
         <v>790</v>
       </c>
@@ -32893,7 +32893,7 @@
         <v>0.78251110000000001</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:13">
       <c r="A792">
         <v>791</v>
       </c>
@@ -32934,7 +32934,7 @@
         <v>-0.41187069999999998</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:13">
       <c r="A793">
         <v>792</v>
       </c>
@@ -32975,7 +32975,7 @@
         <v>-6.2902200000000005E-2</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:13">
       <c r="A794">
         <v>793</v>
       </c>
@@ -33016,7 +33016,7 @@
         <v>-1.8987328000000001</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:13">
       <c r="A795">
         <v>794</v>
       </c>
@@ -33057,7 +33057,7 @@
         <v>-1.7370049000000001</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:13">
       <c r="A796">
         <v>795</v>
       </c>
@@ -33098,7 +33098,7 @@
         <v>-1.9157617</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:13">
       <c r="A797">
         <v>796</v>
       </c>
@@ -33139,7 +33139,7 @@
         <v>-1.6783044</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:13">
       <c r="A798">
         <v>797</v>
       </c>
@@ -33180,7 +33180,7 @@
         <v>-2.6022240999999999</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:13">
       <c r="A799">
         <v>798</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>-2.5526939999999998</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:13">
       <c r="A800">
         <v>799</v>
       </c>
@@ -33262,7 +33262,7 @@
         <v>-3.6568809999999998</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:13">
       <c r="A801">
         <v>800</v>
       </c>
@@ -33303,7 +33303,7 @@
         <v>-3.9355981</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:13">
       <c r="A802">
         <v>801</v>
       </c>
@@ -33344,7 +33344,7 @@
         <v>-2.8411767000000001</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:13">
       <c r="A803">
         <v>802</v>
       </c>
@@ -33385,7 +33385,7 @@
         <v>-4.0418145000000001</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:13">
       <c r="A804">
         <v>803</v>
       </c>
@@ -33426,7 +33426,7 @@
         <v>-3.8892571</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:13">
       <c r="A805">
         <v>804</v>
       </c>
@@ -33467,7 +33467,7 @@
         <v>-3.2738702000000002</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:13">
       <c r="A806">
         <v>805</v>
       </c>
@@ -33508,7 +33508,7 @@
         <v>20.019145099999999</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:13">
       <c r="A807">
         <v>806</v>
       </c>
@@ -33549,7 +33549,7 @@
         <v>9.7702133</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:13">
       <c r="A808">
         <v>807</v>
       </c>
@@ -33590,7 +33590,7 @@
         <v>39.419255399999997</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:13">
       <c r="A809">
         <v>808</v>
       </c>
@@ -33631,7 +33631,7 @@
         <v>17.575925099999999</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:13">
       <c r="A810">
         <v>809</v>
       </c>
@@ -33672,7 +33672,7 @@
         <v>25.484995699999999</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:13">
       <c r="A811">
         <v>810</v>
       </c>
@@ -33713,7 +33713,7 @@
         <v>-12.824895</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:13">
       <c r="A812">
         <v>811</v>
       </c>
@@ -33754,7 +33754,7 @@
         <v>12.388980200000001</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:13">
       <c r="A813">
         <v>812</v>
       </c>
@@ -33795,7 +33795,7 @@
         <v>5.5631554999999997</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:13">
       <c r="A814">
         <v>813</v>
       </c>
@@ -33836,7 +33836,7 @@
         <v>1.4330094</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:13">
       <c r="A815">
         <v>814</v>
       </c>
@@ -33877,7 +33877,7 @@
         <v>0.61769799999999997</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:13">
       <c r="A816">
         <v>815</v>
       </c>
@@ -33918,7 +33918,7 @@
         <v>0.33430409999999999</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:13">
       <c r="A817">
         <v>816</v>
       </c>
@@ -33959,7 +33959,7 @@
         <v>1.0813554000000001</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:13">
       <c r="A818">
         <v>817</v>
       </c>
@@ -34000,7 +34000,7 @@
         <v>0.1173141</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:13">
       <c r="A819">
         <v>818</v>
       </c>
@@ -34041,7 +34041,7 @@
         <v>5.6294200000000003E-2</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:13">
       <c r="A820">
         <v>819</v>
       </c>
@@ -34082,7 +34082,7 @@
         <v>-0.48409580000000002</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:13">
       <c r="A821">
         <v>820</v>
       </c>
@@ -34123,7 +34123,7 @@
         <v>-0.46091769999999999</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:13">
       <c r="A822">
         <v>821</v>
       </c>
@@ -34164,7 +34164,7 @@
         <v>0.55664130000000001</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:13">
       <c r="A823">
         <v>822</v>
       </c>
@@ -34205,7 +34205,7 @@
         <v>0.1135757</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:13">
       <c r="A824">
         <v>823</v>
       </c>
@@ -34246,7 +34246,7 @@
         <v>-0.2116082</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:13">
       <c r="A825">
         <v>824</v>
       </c>
@@ -34287,7 +34287,7 @@
         <v>0.13241259999999999</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:13">
       <c r="A826">
         <v>825</v>
       </c>
@@ -34328,7 +34328,7 @@
         <v>-0.1740601</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:13">
       <c r="A827">
         <v>826</v>
       </c>
@@ -34369,7 +34369,7 @@
         <v>-0.37242059999999999</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:13">
       <c r="A828">
         <v>827</v>
       </c>
@@ -34410,7 +34410,7 @@
         <v>-0.56132439999999995</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:13">
       <c r="A829">
         <v>828</v>
       </c>
@@ -34451,7 +34451,7 @@
         <v>-0.69499520000000004</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:13">
       <c r="A830">
         <v>829</v>
       </c>
@@ -34492,7 +34492,7 @@
         <v>-0.66712119999999997</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:13">
       <c r="A831">
         <v>830</v>
       </c>
@@ -34533,7 +34533,7 @@
         <v>-0.86769039999999997</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:13">
       <c r="A832">
         <v>831</v>
       </c>
@@ -34574,7 +34574,7 @@
         <v>-0.21569759999999999</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:13">
       <c r="A833">
         <v>832</v>
       </c>
@@ -34615,7 +34615,7 @@
         <v>-0.85596019999999995</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:13">
       <c r="A834">
         <v>833</v>
       </c>
@@ -34656,7 +34656,7 @@
         <v>-0.24749309999999999</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:13">
       <c r="A835">
         <v>834</v>
       </c>
@@ -34697,7 +34697,7 @@
         <v>-0.83190090000000005</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:13">
       <c r="A836">
         <v>835</v>
       </c>
@@ -34738,7 +34738,7 @@
         <v>-0.80744479999999996</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:13">
       <c r="A837">
         <v>836</v>
       </c>
@@ -34779,7 +34779,7 @@
         <v>-1.0383065</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:13">
       <c r="A838">
         <v>837</v>
       </c>
@@ -34820,7 +34820,7 @@
         <v>-0.91258170000000005</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:13">
       <c r="A839">
         <v>838</v>
       </c>
@@ -34861,7 +34861,7 @@
         <v>-1.3383057</v>
       </c>
     </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:13">
       <c r="A840">
         <v>839</v>
       </c>
@@ -34902,7 +34902,7 @@
         <v>-0.70627139999999999</v>
       </c>
     </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:13">
       <c r="A841">
         <v>840</v>
       </c>
@@ -34943,7 +34943,7 @@
         <v>-2.0349419000000002</v>
       </c>
     </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:13">
       <c r="A842">
         <v>841</v>
       </c>
@@ -34984,7 +34984,7 @@
         <v>16.2142056</v>
       </c>
     </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:13">
       <c r="A843">
         <v>842</v>
       </c>
@@ -35025,7 +35025,7 @@
         <v>49.777305599999998</v>
       </c>
     </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:13">
       <c r="A844">
         <v>843</v>
       </c>
@@ -35066,7 +35066,7 @@
         <v>35.663625699999997</v>
       </c>
     </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:13">
       <c r="A845">
         <v>844</v>
       </c>
@@ -35107,7 +35107,7 @@
         <v>39.266245900000001</v>
       </c>
     </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:13">
       <c r="A846">
         <v>845</v>
       </c>
@@ -35148,7 +35148,7 @@
         <v>9.9459944999999994</v>
       </c>
     </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:13">
       <c r="A847">
         <v>846</v>
       </c>
@@ -35189,7 +35189,7 @@
         <v>-0.15164030000000001</v>
       </c>
     </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:13">
       <c r="A848">
         <v>847</v>
       </c>
@@ -35230,7 +35230,7 @@
         <v>-2.7539962</v>
       </c>
     </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:13">
       <c r="A849">
         <v>848</v>
       </c>
@@ -35271,7 +35271,7 @@
         <v>-1.6428512</v>
       </c>
     </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:13">
       <c r="A850">
         <v>849</v>
       </c>
@@ -35312,7 +35312,7 @@
         <v>-1.7556137000000001</v>
       </c>
     </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:13">
       <c r="A851">
         <v>850</v>
       </c>
@@ -35353,7 +35353,7 @@
         <v>-0.34048309999999998</v>
       </c>
     </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:13">
       <c r="A852">
         <v>851</v>
       </c>
@@ -35394,7 +35394,7 @@
         <v>7.8742099999999995E-2</v>
       </c>
     </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:13">
       <c r="A853">
         <v>852</v>
       </c>
@@ -35435,7 +35435,7 @@
         <v>0.56757270000000004</v>
       </c>
     </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:13">
       <c r="A854">
         <v>853</v>
       </c>
@@ -35476,7 +35476,7 @@
         <v>-0.93065730000000002</v>
       </c>
     </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:13">
       <c r="A855">
         <v>854</v>
       </c>
@@ -35517,7 +35517,7 @@
         <v>-0.64806450000000004</v>
       </c>
     </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:13">
       <c r="A856">
         <v>855</v>
       </c>
@@ -35558,7 +35558,7 @@
         <v>0.1198188</v>
       </c>
     </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:13">
       <c r="A857">
         <v>856</v>
       </c>
@@ -35599,7 +35599,7 @@
         <v>-1.0664605</v>
       </c>
     </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:13">
       <c r="A858">
         <v>857</v>
       </c>
@@ -35640,7 +35640,7 @@
         <v>-0.3452691</v>
       </c>
     </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:13">
       <c r="A859">
         <v>858</v>
       </c>
@@ -35681,7 +35681,7 @@
         <v>-0.50237359999999998</v>
       </c>
     </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:13">
       <c r="A860">
         <v>859</v>
       </c>
@@ -35722,7 +35722,7 @@
         <v>0.1950751</v>
       </c>
     </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:13">
       <c r="A861">
         <v>860</v>
       </c>
@@ -35763,7 +35763,7 @@
         <v>0.50879580000000002</v>
       </c>
     </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:13">
       <c r="A862">
         <v>861</v>
       </c>
@@ -35804,7 +35804,7 @@
         <v>0.76673040000000003</v>
       </c>
     </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:13">
       <c r="A863">
         <v>862</v>
       </c>
@@ -35845,7 +35845,7 @@
         <v>-1.1950616000000001</v>
       </c>
     </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:13">
       <c r="A864">
         <v>863</v>
       </c>
@@ -35886,7 +35886,7 @@
         <v>-0.85906309999999997</v>
       </c>
     </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:13">
       <c r="A865">
         <v>864</v>
       </c>
@@ -35927,7 +35927,7 @@
         <v>-0.5872735</v>
       </c>
     </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:13">
       <c r="A866">
         <v>865</v>
       </c>
@@ -35968,7 +35968,7 @@
         <v>-1.0528497000000001</v>
       </c>
     </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:13">
       <c r="A867">
         <v>866</v>
       </c>
@@ -36009,7 +36009,7 @@
         <v>0.35217959999999998</v>
       </c>
     </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:13">
       <c r="A868">
         <v>867</v>
       </c>
@@ -36050,7 +36050,7 @@
         <v>-0.80678640000000001</v>
       </c>
     </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:13">
       <c r="A869">
         <v>868</v>
       </c>
@@ -36091,7 +36091,7 @@
         <v>-0.64382260000000002</v>
       </c>
     </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:13">
       <c r="A870">
         <v>869</v>
       </c>
@@ -36132,7 +36132,7 @@
         <v>-0.47399229999999998</v>
       </c>
     </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:13">
       <c r="A871">
         <v>870</v>
       </c>
@@ -36173,7 +36173,7 @@
         <v>-0.3152703</v>
       </c>
     </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:13">
       <c r="A872">
         <v>871</v>
       </c>
@@ -36214,7 +36214,7 @@
         <v>-9.8320900000000003E-2</v>
       </c>
     </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:13">
       <c r="A873">
         <v>872</v>
       </c>
@@ -36255,7 +36255,7 @@
         <v>-0.78624810000000001</v>
       </c>
     </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:13">
       <c r="A874">
         <v>873</v>
       </c>
@@ -36296,7 +36296,7 @@
         <v>-1.5709799999999999E-2</v>
       </c>
     </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:13">
       <c r="A875">
         <v>874</v>
       </c>
@@ -36337,7 +36337,7 @@
         <v>-0.29433530000000002</v>
       </c>
     </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:13">
       <c r="A876">
         <v>875</v>
       </c>
@@ -36378,7 +36378,7 @@
         <v>-0.80770200000000003</v>
       </c>
     </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:13">
       <c r="A877">
         <v>876</v>
       </c>
@@ -36419,7 +36419,7 @@
         <v>44.254415100000003</v>
       </c>
     </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:13">
       <c r="A878">
         <v>877</v>
       </c>
@@ -36460,7 +36460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:13">
       <c r="A879">
         <v>878</v>
       </c>
@@ -36501,7 +36501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:13">
       <c r="A880">
         <v>879</v>
       </c>
@@ -36542,7 +36542,7 @@
         <v>24.310585700000001</v>
       </c>
     </row>
-    <row r="881" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:13">
       <c r="A881">
         <v>880</v>
       </c>
@@ -36583,7 +36583,7 @@
         <v>-5.2050698000000004</v>
       </c>
     </row>
-    <row r="882" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:13">
       <c r="A882">
         <v>881</v>
       </c>
@@ -36624,7 +36624,7 @@
         <v>-9.2675392999999993</v>
       </c>
     </row>
-    <row r="883" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:13">
       <c r="A883">
         <v>882</v>
       </c>
@@ -36665,7 +36665,7 @@
         <v>-8.4820474000000008</v>
       </c>
     </row>
-    <row r="884" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:13">
       <c r="A884">
         <v>883</v>
       </c>
@@ -36706,7 +36706,7 @@
         <v>7.8661836000000003</v>
       </c>
     </row>
-    <row r="885" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:13">
       <c r="A885">
         <v>884</v>
       </c>
@@ -36747,7 +36747,7 @@
         <v>-2.1506316000000001</v>
       </c>
     </row>
-    <row r="886" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:13">
       <c r="A886">
         <v>885</v>
       </c>
@@ -36788,7 +36788,7 @@
         <v>-6.8039214000000001</v>
       </c>
     </row>
-    <row r="887" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:13">
       <c r="A887">
         <v>886</v>
       </c>
@@ -36829,7 +36829,7 @@
         <v>-6.3596159999999999</v>
       </c>
     </row>
-    <row r="888" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:13">
       <c r="A888">
         <v>887</v>
       </c>
@@ -36870,7 +36870,7 @@
         <v>-5.4781614999999997</v>
       </c>
     </row>
-    <row r="889" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:13">
       <c r="A889">
         <v>888</v>
       </c>
@@ -36911,7 +36911,7 @@
         <v>-4.7358672000000004</v>
       </c>
     </row>
-    <row r="890" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:13">
       <c r="A890">
         <v>889</v>
       </c>
@@ -36952,7 +36952,7 @@
         <v>-3.5181089999999999</v>
       </c>
     </row>
-    <row r="891" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:13">
       <c r="A891">
         <v>890</v>
       </c>
@@ -36993,7 +36993,7 @@
         <v>-3.3517882000000001</v>
       </c>
     </row>
-    <row r="892" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:13">
       <c r="A892">
         <v>891</v>
       </c>
@@ -37034,7 +37034,7 @@
         <v>-3.1399045999999999</v>
       </c>
     </row>
-    <row r="893" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:13">
       <c r="A893">
         <v>892</v>
       </c>
@@ -37075,7 +37075,7 @@
         <v>-3.4214750999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:13">
       <c r="A894">
         <v>893</v>
       </c>
@@ -37116,7 +37116,7 @@
         <v>-0.1014782</v>
       </c>
     </row>
-    <row r="895" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:13">
       <c r="A895">
         <v>894</v>
       </c>
@@ -37157,7 +37157,7 @@
         <v>-1.9379497000000001</v>
       </c>
     </row>
-    <row r="896" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:13">
       <c r="A896">
         <v>895</v>
       </c>
@@ -37198,7 +37198,7 @@
         <v>-2.8578258000000001</v>
       </c>
     </row>
-    <row r="897" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:13">
       <c r="A897">
         <v>896</v>
       </c>
@@ -37239,7 +37239,7 @@
         <v>-1.8599467999999999</v>
       </c>
     </row>
-    <row r="898" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:13">
       <c r="A898">
         <v>897</v>
       </c>
@@ -37280,7 +37280,7 @@
         <v>-2.0933605000000002</v>
       </c>
     </row>
-    <row r="899" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:13">
       <c r="A899">
         <v>898</v>
       </c>
@@ -37321,7 +37321,7 @@
         <v>-2.1151806</v>
       </c>
     </row>
-    <row r="900" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:13">
       <c r="A900">
         <v>899</v>
       </c>
@@ -37362,7 +37362,7 @@
         <v>-0.96781119999999998</v>
       </c>
     </row>
-    <row r="901" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:13">
       <c r="A901">
         <v>900</v>
       </c>
@@ -37403,7 +37403,7 @@
         <v>-1.2956768000000001</v>
       </c>
     </row>
-    <row r="902" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:13">
       <c r="A902">
         <v>901</v>
       </c>
@@ -37444,7 +37444,7 @@
         <v>-2.1456981000000002</v>
       </c>
     </row>
-    <row r="903" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:13">
       <c r="A903">
         <v>902</v>
       </c>
@@ -37485,7 +37485,7 @@
         <v>-1.7719494</v>
       </c>
     </row>
-    <row r="904" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:13">
       <c r="A904">
         <v>903</v>
       </c>
@@ -37526,7 +37526,7 @@
         <v>-0.74488030000000005</v>
       </c>
     </row>
-    <row r="905" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:13">
       <c r="A905">
         <v>904</v>
       </c>
@@ -37567,7 +37567,7 @@
         <v>-1.0949932</v>
       </c>
     </row>
-    <row r="906" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:13">
       <c r="A906">
         <v>905</v>
       </c>
@@ -37608,7 +37608,7 @@
         <v>-2.0676342000000001</v>
       </c>
     </row>
-    <row r="907" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:13">
       <c r="A907">
         <v>906</v>
       </c>
@@ -37649,7 +37649,7 @@
         <v>-1.5093761000000001</v>
       </c>
     </row>
-    <row r="908" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:13">
       <c r="A908">
         <v>907</v>
       </c>
@@ -37690,7 +37690,7 @@
         <v>-1.4039988999999999</v>
       </c>
     </row>
-    <row r="909" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:13">
       <c r="A909">
         <v>908</v>
       </c>
@@ -37731,7 +37731,7 @@
         <v>-1.766975</v>
       </c>
     </row>
-    <row r="910" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:13">
       <c r="A910">
         <v>909</v>
       </c>
@@ -37772,7 +37772,7 @@
         <v>-1.4556499000000001</v>
       </c>
     </row>
-    <row r="911" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:13">
       <c r="A911">
         <v>910</v>
       </c>
@@ -37813,7 +37813,7 @@
         <v>-2.0078654999999999</v>
       </c>
     </row>
-    <row r="912" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:13">
       <c r="A912">
         <v>911</v>
       </c>
@@ -37854,7 +37854,7 @@
         <v>-1.1023327000000001</v>
       </c>
     </row>
-    <row r="913" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:13">
       <c r="A913">
         <v>912</v>
       </c>
@@ -37895,7 +37895,7 @@
         <v>-2.1477580999999999</v>
       </c>
     </row>
-    <row r="914" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:13">
       <c r="A914">
         <v>913</v>
       </c>
@@ -37936,7 +37936,7 @@
         <v>-1.1950908</v>
       </c>
     </row>
-    <row r="915" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:13">
       <c r="A915">
         <v>914</v>
       </c>
@@ -37977,7 +37977,7 @@
         <v>-0.64447739999999998</v>
       </c>
     </row>
-    <row r="916" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:13">
       <c r="A916">
         <v>915</v>
       </c>
@@ -38018,7 +38018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="917" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:13">
       <c r="A917">
         <v>916</v>
       </c>
@@ -38059,7 +38059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="918" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:13">
       <c r="A918">
         <v>917</v>
       </c>
@@ -38100,7 +38100,7 @@
         <v>33.917672000000003</v>
       </c>
     </row>
-    <row r="919" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:13">
       <c r="A919">
         <v>918</v>
       </c>
@@ -38141,7 +38141,7 @@
         <v>10.7443016</v>
       </c>
     </row>
-    <row r="920" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:13">
       <c r="A920">
         <v>919</v>
       </c>
@@ -38182,7 +38182,7 @@
         <v>-10.0426018</v>
       </c>
     </row>
-    <row r="921" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:13">
       <c r="A921">
         <v>920</v>
       </c>
@@ -38223,7 +38223,7 @@
         <v>8.7832944000000008</v>
       </c>
     </row>
-    <row r="922" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:13">
       <c r="A922">
         <v>921</v>
       </c>
@@ -38264,7 +38264,7 @@
         <v>1.0591885999999999</v>
       </c>
     </row>
-    <row r="923" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:13">
       <c r="A923">
         <v>922</v>
       </c>
@@ -38305,7 +38305,7 @@
         <v>-5.1171267</v>
       </c>
     </row>
-    <row r="924" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:13">
       <c r="A924">
         <v>923</v>
       </c>
@@ -38346,7 +38346,7 @@
         <v>-6.3633883000000004</v>
       </c>
     </row>
-    <row r="925" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:13">
       <c r="A925">
         <v>924</v>
       </c>
@@ -38387,7 +38387,7 @@
         <v>-5.1492312</v>
       </c>
     </row>
-    <row r="926" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:13">
       <c r="A926">
         <v>925</v>
       </c>
@@ -38428,7 +38428,7 @@
         <v>-4.7970584000000001</v>
       </c>
     </row>
-    <row r="927" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:13">
       <c r="A927">
         <v>926</v>
       </c>
@@ -38469,7 +38469,7 @@
         <v>-4.2324831999999999</v>
       </c>
     </row>
-    <row r="928" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:13">
       <c r="A928">
         <v>927</v>
       </c>
@@ -38510,7 +38510,7 @@
         <v>-4.1565097</v>
       </c>
     </row>
-    <row r="929" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:13">
       <c r="A929">
         <v>928</v>
       </c>
@@ -38551,7 +38551,7 @@
         <v>-3.7300265000000001</v>
       </c>
     </row>
-    <row r="930" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:13">
       <c r="A930">
         <v>929</v>
       </c>
@@ -38592,7 +38592,7 @@
         <v>-2.5988772</v>
       </c>
     </row>
-    <row r="931" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:13">
       <c r="A931">
         <v>930</v>
       </c>
@@ -38633,7 +38633,7 @@
         <v>-2.7613832999999999</v>
       </c>
     </row>
-    <row r="932" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:13">
       <c r="A932">
         <v>931</v>
       </c>
@@ -38674,7 +38674,7 @@
         <v>2.07003</v>
       </c>
     </row>
-    <row r="933" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:13">
       <c r="A933">
         <v>932</v>
       </c>
@@ -38715,7 +38715,7 @@
         <v>-2.1381150999999998</v>
       </c>
     </row>
-    <row r="934" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:13">
       <c r="A934">
         <v>933</v>
       </c>
@@ -38756,7 +38756,7 @@
         <v>-3.2206652</v>
       </c>
     </row>
-    <row r="935" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:13">
       <c r="A935">
         <v>934</v>
       </c>
@@ -38797,7 +38797,7 @@
         <v>-2.2835771</v>
       </c>
     </row>
-    <row r="936" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:13">
       <c r="A936">
         <v>935</v>
       </c>
@@ -38838,7 +38838,7 @@
         <v>-2.6030351</v>
       </c>
     </row>
-    <row r="937" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:13">
       <c r="A937">
         <v>936</v>
       </c>
@@ -38879,7 +38879,7 @@
         <v>-1.707741</v>
       </c>
     </row>
-    <row r="938" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:13">
       <c r="A938">
         <v>937</v>
       </c>
@@ -38920,7 +38920,7 @@
         <v>-1.9953691</v>
       </c>
     </row>
-    <row r="939" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:13">
       <c r="A939">
         <v>938</v>
       </c>
@@ -38961,7 +38961,7 @@
         <v>-2.2553331000000001</v>
       </c>
     </row>
-    <row r="940" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:13">
       <c r="A940">
         <v>939</v>
       </c>
@@ -39002,7 +39002,7 @@
         <v>-1.7096178</v>
       </c>
     </row>
-    <row r="941" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:13">
       <c r="A941">
         <v>940</v>
       </c>
@@ -39043,7 +39043,7 @@
         <v>-1.6215592999999999</v>
       </c>
     </row>
-    <row r="942" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:13">
       <c r="A942">
         <v>941</v>
       </c>
@@ -39084,7 +39084,7 @@
         <v>-0.2321703</v>
       </c>
     </row>
-    <row r="943" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:13">
       <c r="A943">
         <v>942</v>
       </c>
@@ -39125,7 +39125,7 @@
         <v>-1.7083971</v>
       </c>
     </row>
-    <row r="944" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:13">
       <c r="A944">
         <v>943</v>
       </c>
@@ -39166,7 +39166,7 @@
         <v>-0.99492659999999999</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:13">
       <c r="A945">
         <v>944</v>
       </c>
@@ -39207,7 +39207,7 @@
         <v>-0.21898670000000001</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:13">
       <c r="A946">
         <v>945</v>
       </c>
@@ -39248,7 +39248,7 @@
         <v>-1.3627397000000001</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:13">
       <c r="A947">
         <v>946</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>-0.74222580000000005</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:13">
       <c r="A948">
         <v>947</v>
       </c>
@@ -39330,7 +39330,7 @@
         <v>-0.92420210000000003</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:13">
       <c r="A949">
         <v>948</v>
       </c>
@@ -39371,7 +39371,7 @@
         <v>-0.97704329999999995</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:13">
       <c r="A950">
         <v>949</v>
       </c>
@@ -39412,7 +39412,7 @@
         <v>-1.0561754000000001</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:13">
       <c r="A951">
         <v>950</v>
       </c>
@@ -39453,7 +39453,7 @@
         <v>-0.31511709999999998</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:13">
       <c r="A952">
         <v>951</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>-0.22365589999999999</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:13">
       <c r="A953">
         <v>952</v>
       </c>
@@ -39535,7 +39535,7 @@
         <v>-0.46512619999999999</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:13">
       <c r="A954">
         <v>953</v>
       </c>
@@ -39576,7 +39576,7 @@
         <v>-0.46608749999999999</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:13">
       <c r="A955">
         <v>954</v>
       </c>
@@ -39617,7 +39617,7 @@
         <v>5.7502600000000001E-2</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:13">
       <c r="A956">
         <v>955</v>
       </c>
@@ -39658,7 +39658,7 @@
         <v>-0.50141159999999996</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:13">
       <c r="A957">
         <v>956</v>
       </c>
@@ -39699,7 +39699,7 @@
         <v>22.644438399999999</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:13">
       <c r="A958">
         <v>957</v>
       </c>
@@ -39740,7 +39740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:13">
       <c r="A959">
         <v>958</v>
       </c>
@@ -39781,7 +39781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:13">
       <c r="A960">
         <v>959</v>
       </c>
@@ -39822,7 +39822,7 @@
         <v>31.5700295</v>
       </c>
     </row>
-    <row r="961" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:13">
       <c r="A961">
         <v>960</v>
       </c>
@@ -39863,7 +39863,7 @@
         <v>-2.0235335000000001</v>
       </c>
     </row>
-    <row r="962" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:13">
       <c r="A962">
         <v>961</v>
       </c>
@@ -39904,7 +39904,7 @@
         <v>-14.722718</v>
       </c>
     </row>
-    <row r="963" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:13">
       <c r="A963">
         <v>962</v>
       </c>
@@ -39945,7 +39945,7 @@
         <v>8.1460439999999998</v>
       </c>
     </row>
-    <row r="964" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:13">
       <c r="A964">
         <v>963</v>
       </c>
@@ -39986,7 +39986,7 @@
         <v>2.2957556000000001</v>
       </c>
     </row>
-    <row r="965" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:13">
       <c r="A965">
         <v>964</v>
       </c>
@@ -40027,7 +40027,7 @@
         <v>-4.3223893000000002</v>
       </c>
     </row>
-    <row r="966" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:13">
       <c r="A966">
         <v>965</v>
       </c>
@@ -40068,7 +40068,7 @@
         <v>-3.8806207000000001</v>
       </c>
     </row>
-    <row r="967" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:13">
       <c r="A967">
         <v>966</v>
       </c>
@@ -40109,7 +40109,7 @@
         <v>-3.7114311999999998</v>
       </c>
     </row>
-    <row r="968" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:13">
       <c r="A968">
         <v>967</v>
       </c>
@@ -40150,7 +40150,7 @@
         <v>-3.6208322000000002</v>
       </c>
     </row>
-    <row r="969" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:13">
       <c r="A969">
         <v>968</v>
       </c>
@@ -40191,7 +40191,7 @@
         <v>-3.3753106000000002</v>
       </c>
     </row>
-    <row r="970" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:13">
       <c r="A970">
         <v>969</v>
       </c>
@@ -40232,7 +40232,7 @@
         <v>-3.2895677000000001</v>
       </c>
     </row>
-    <row r="971" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:13">
       <c r="A971">
         <v>970</v>
       </c>
@@ -40273,7 +40273,7 @@
         <v>-3.3259370000000001</v>
       </c>
     </row>
-    <row r="972" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:13">
       <c r="A972">
         <v>971</v>
       </c>
@@ -40314,7 +40314,7 @@
         <v>1.5744235</v>
       </c>
     </row>
-    <row r="973" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:13">
       <c r="A973">
         <v>972</v>
       </c>
@@ -40355,7 +40355,7 @@
         <v>-1.6335653000000001</v>
       </c>
     </row>
-    <row r="974" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:13">
       <c r="A974">
         <v>973</v>
       </c>
@@ -40396,7 +40396,7 @@
         <v>-1.4836400000000001</v>
       </c>
     </row>
-    <row r="975" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:13">
       <c r="A975">
         <v>974</v>
       </c>
@@ -40437,7 +40437,7 @@
         <v>-1.8161176000000001</v>
       </c>
     </row>
-    <row r="976" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:13">
       <c r="A976">
         <v>975</v>
       </c>
@@ -40478,7 +40478,7 @@
         <v>-1.8082441</v>
       </c>
     </row>
-    <row r="977" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:13">
       <c r="A977">
         <v>976</v>
       </c>
@@ -40519,7 +40519,7 @@
         <v>-0.88438539999999999</v>
       </c>
     </row>
-    <row r="978" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:13">
       <c r="A978">
         <v>977</v>
       </c>
@@ -40560,7 +40560,7 @@
         <v>-0.85971580000000003</v>
       </c>
     </row>
-    <row r="979" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:13">
       <c r="A979">
         <v>978</v>
       </c>
@@ -40601,7 +40601,7 @@
         <v>-1.2635586999999999</v>
       </c>
     </row>
-    <row r="980" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:13">
       <c r="A980">
         <v>979</v>
       </c>
@@ -40642,7 +40642,7 @@
         <v>-0.51419579999999998</v>
       </c>
     </row>
-    <row r="981" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="981" spans="1:13">
       <c r="A981">
         <v>980</v>
       </c>
@@ -40683,7 +40683,7 @@
         <v>-1.2545942000000001</v>
       </c>
     </row>
-    <row r="982" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:13">
       <c r="A982">
         <v>981</v>
       </c>
@@ -40724,7 +40724,7 @@
         <v>-0.77573519999999996</v>
       </c>
     </row>
-    <row r="983" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:13">
       <c r="A983">
         <v>982</v>
       </c>
@@ -40765,7 +40765,7 @@
         <v>-1.0535825000000001</v>
       </c>
     </row>
-    <row r="984" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:13">
       <c r="A984">
         <v>983</v>
       </c>
@@ -40806,7 +40806,7 @@
         <v>-1.369882</v>
       </c>
     </row>
-    <row r="985" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:13">
       <c r="A985">
         <v>984</v>
       </c>
@@ -40847,7 +40847,7 @@
         <v>-0.89237339999999998</v>
       </c>
     </row>
-    <row r="986" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="986" spans="1:13">
       <c r="A986">
         <v>985</v>
       </c>
@@ -40888,7 +40888,7 @@
         <v>-1.4083532000000001</v>
       </c>
     </row>
-    <row r="987" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="987" spans="1:13">
       <c r="A987">
         <v>986</v>
       </c>
@@ -40929,7 +40929,7 @@
         <v>-1.6735241999999999</v>
       </c>
     </row>
-    <row r="988" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="988" spans="1:13">
       <c r="A988">
         <v>987</v>
       </c>
@@ -40970,7 +40970,7 @@
         <v>-0.79305780000000003</v>
       </c>
     </row>
-    <row r="989" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="989" spans="1:13">
       <c r="A989">
         <v>988</v>
       </c>
@@ -41011,7 +41011,7 @@
         <v>-0.68053560000000002</v>
       </c>
     </row>
-    <row r="990" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="990" spans="1:13">
       <c r="A990">
         <v>989</v>
       </c>
@@ -41052,7 +41052,7 @@
         <v>-1.6700451999999999</v>
       </c>
     </row>
-    <row r="991" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="991" spans="1:13">
       <c r="A991">
         <v>990</v>
       </c>
@@ -41093,7 +41093,7 @@
         <v>-0.52500279999999999</v>
       </c>
     </row>
-    <row r="992" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="992" spans="1:13">
       <c r="A992">
         <v>991</v>
       </c>
@@ -41134,7 +41134,7 @@
         <v>-1.5374463</v>
       </c>
     </row>
-    <row r="993" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="993" spans="1:13">
       <c r="A993">
         <v>992</v>
       </c>
@@ -41175,7 +41175,7 @@
         <v>-0.67959340000000001</v>
       </c>
     </row>
-    <row r="994" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="994" spans="1:13">
       <c r="A994">
         <v>993</v>
       </c>
@@ -41216,7 +41216,7 @@
         <v>-1.7495244000000001</v>
       </c>
     </row>
-    <row r="995" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="995" spans="1:13">
       <c r="A995">
         <v>994</v>
       </c>
@@ -41257,7 +41257,7 @@
         <v>-0.64012270000000004</v>
       </c>
     </row>
-    <row r="996" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="996" spans="1:13">
       <c r="A996">
         <v>995</v>
       </c>
@@ -41298,7 +41298,7 @@
         <v>20.268821200000001</v>
       </c>
     </row>
-    <row r="997" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="997" spans="1:13">
       <c r="A997">
         <v>996</v>
       </c>
@@ -41339,7 +41339,7 @@
         <v>46.355321000000004</v>
       </c>
     </row>
-    <row r="998" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="998" spans="1:13">
       <c r="A998">
         <v>997</v>
       </c>
@@ -41380,7 +41380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="999" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="999" spans="1:13">
       <c r="A999">
         <v>998</v>
       </c>
@@ -41421,7 +41421,7 @@
         <v>26.712089500000001</v>
       </c>
     </row>
-    <row r="1000" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1000" spans="1:13">
       <c r="A1000">
         <v>999</v>
       </c>
@@ -41462,7 +41462,7 @@
         <v>-2.7321854000000001</v>
       </c>
     </row>
-    <row r="1001" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1001" spans="1:13">
       <c r="A1001">
         <v>1000</v>
       </c>
@@ -41503,7 +41503,7 @@
         <v>-6.3715286999999998</v>
       </c>
     </row>
-    <row r="1002" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1002" spans="1:13">
       <c r="A1002">
         <v>1001</v>
       </c>
@@ -41544,7 +41544,7 @@
         <v>5.6524723999999997</v>
       </c>
     </row>
-    <row r="1003" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1003" spans="1:13">
       <c r="A1003">
         <v>1002</v>
       </c>
@@ -41585,7 +41585,7 @@
         <v>-0.19225410000000001</v>
       </c>
     </row>
-    <row r="1004" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1004" spans="1:13">
       <c r="A1004">
         <v>1003</v>
       </c>
@@ -41626,7 +41626,7 @@
         <v>-4.2966243000000004</v>
       </c>
     </row>
-    <row r="1005" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1005" spans="1:13">
       <c r="A1005">
         <v>1004</v>
       </c>
@@ -41667,7 +41667,7 @@
         <v>-2.7484674999999998</v>
       </c>
     </row>
-    <row r="1006" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1006" spans="1:13">
       <c r="A1006">
         <v>1005</v>
       </c>
@@ -41708,7 +41708,7 @@
         <v>-3.8432856000000002</v>
       </c>
     </row>
-    <row r="1007" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1007" spans="1:13">
       <c r="A1007">
         <v>1006</v>
       </c>
@@ -41749,7 +41749,7 @@
         <v>-2.5798274000000001</v>
       </c>
     </row>
-    <row r="1008" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1008" spans="1:13">
       <c r="A1008">
         <v>1007</v>
       </c>
@@ -41790,7 +41790,7 @@
         <v>-4.6863643000000001</v>
       </c>
     </row>
-    <row r="1009" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1009" spans="1:13">
       <c r="A1009">
         <v>1008</v>
       </c>
@@ -41831,7 +41831,7 @@
         <v>-3.3864679999999998</v>
       </c>
     </row>
-    <row r="1010" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1010" spans="1:13">
       <c r="A1010">
         <v>1009</v>
       </c>
@@ -41872,7 +41872,7 @@
         <v>-2.5679561</v>
       </c>
     </row>
-    <row r="1011" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1011" spans="1:13">
       <c r="A1011">
         <v>1010</v>
       </c>
@@ -41913,7 +41913,7 @@
         <v>-3.3217097</v>
       </c>
     </row>
-    <row r="1012" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1012" spans="1:13">
       <c r="A1012">
         <v>1011</v>
       </c>
@@ -41954,7 +41954,7 @@
         <v>1.0225128999999999</v>
       </c>
     </row>
-    <row r="1013" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1013" spans="1:13">
       <c r="A1013">
         <v>1012</v>
       </c>
@@ -41995,7 +41995,7 @@
         <v>-3.0142913</v>
       </c>
     </row>
-    <row r="1014" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1014" spans="1:13">
       <c r="A1014">
         <v>1013</v>
       </c>
@@ -42036,7 +42036,7 @@
         <v>-2.1395965000000001</v>
       </c>
     </row>
-    <row r="1015" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1015" spans="1:13">
       <c r="A1015">
         <v>1014</v>
       </c>
@@ -42077,7 +42077,7 @@
         <v>-3.3436981000000001</v>
       </c>
     </row>
-    <row r="1016" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1016" spans="1:13">
       <c r="A1016">
         <v>1015</v>
       </c>
@@ -42118,7 +42118,7 @@
         <v>-3.6765533000000001</v>
       </c>
     </row>
-    <row r="1017" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1017" spans="1:13">
       <c r="A1017">
         <v>1016</v>
       </c>
@@ -42159,7 +42159,7 @@
         <v>-0.20343929999999999</v>
       </c>
     </row>
-    <row r="1018" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1018" spans="1:13">
       <c r="A1018">
         <v>1017</v>
       </c>
@@ -42200,7 +42200,7 @@
         <v>-1.1912323</v>
       </c>
     </row>
-    <row r="1019" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1019" spans="1:13">
       <c r="A1019">
         <v>1018</v>
       </c>
@@ -42241,7 +42241,7 @@
         <v>-1.6358123</v>
       </c>
     </row>
-    <row r="1020" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1020" spans="1:13">
       <c r="A1020">
         <v>1019</v>
       </c>
@@ -42282,7 +42282,7 @@
         <v>-1.4639068</v>
       </c>
     </row>
-    <row r="1021" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1021" spans="1:13">
       <c r="A1021">
         <v>1020</v>
       </c>
@@ -42323,7 +42323,7 @@
         <v>-0.81482840000000001</v>
       </c>
     </row>
-    <row r="1022" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1022" spans="1:13">
       <c r="A1022">
         <v>1021</v>
       </c>
@@ -42364,7 +42364,7 @@
         <v>-1.1672149000000001</v>
       </c>
     </row>
-    <row r="1023" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1023" spans="1:13">
       <c r="A1023">
         <v>1022</v>
       </c>
@@ -42405,7 +42405,7 @@
         <v>-0.91776420000000003</v>
       </c>
     </row>
-    <row r="1024" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1024" spans="1:13">
       <c r="A1024">
         <v>1023</v>
       </c>
@@ -42446,7 +42446,7 @@
         <v>-0.90912780000000004</v>
       </c>
     </row>
-    <row r="1025" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1025" spans="1:13">
       <c r="A1025">
         <v>1024</v>
       </c>
@@ -42487,7 +42487,7 @@
         <v>-1.569223</v>
       </c>
     </row>
-    <row r="1026" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1026" spans="1:13">
       <c r="A1026">
         <v>1025</v>
       </c>
@@ -42528,7 +42528,7 @@
         <v>-0.49720150000000002</v>
       </c>
     </row>
-    <row r="1027" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1027" spans="1:13">
       <c r="A1027">
         <v>1026</v>
       </c>
@@ -42569,7 +42569,7 @@
         <v>-1.3853241000000001</v>
       </c>
     </row>
-    <row r="1028" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1028" spans="1:13">
       <c r="A1028">
         <v>1027</v>
       </c>
@@ -42610,7 +42610,7 @@
         <v>-1.2065825999999999</v>
       </c>
     </row>
-    <row r="1029" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1029" spans="1:13">
       <c r="A1029">
         <v>1028</v>
       </c>
@@ -42651,7 +42651,7 @@
         <v>0.28035589999999999</v>
       </c>
     </row>
-    <row r="1030" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1030" spans="1:13">
       <c r="A1030">
         <v>1029</v>
       </c>
@@ -42692,7 +42692,7 @@
         <v>-0.43876029999999999</v>
       </c>
     </row>
-    <row r="1031" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1031" spans="1:13">
       <c r="A1031">
         <v>1030</v>
       </c>
@@ -42733,7 +42733,7 @@
         <v>-0.525003</v>
       </c>
     </row>
-    <row r="1032" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1032" spans="1:13">
       <c r="A1032">
         <v>1031</v>
       </c>
@@ -42774,7 +42774,7 @@
         <v>-1.5015350000000001</v>
       </c>
     </row>
-    <row r="1033" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1033" spans="1:13">
       <c r="A1033">
         <v>1032</v>
       </c>
@@ -42815,7 +42815,7 @@
         <v>-1.0331817000000001</v>
       </c>
     </row>
-    <row r="1034" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1034" spans="1:13">
       <c r="A1034">
         <v>1033</v>
       </c>
@@ -42856,7 +42856,7 @@
         <v>-1.6578459999999999</v>
       </c>
     </row>
-    <row r="1035" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1035" spans="1:13">
       <c r="A1035">
         <v>1034</v>
       </c>
@@ -42897,7 +42897,7 @@
         <v>-1.7449432</v>
       </c>
     </row>
-    <row r="1036" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1036" spans="1:13">
       <c r="A1036">
         <v>1035</v>
       </c>
@@ -42938,7 +42938,7 @@
         <v>-1.9513031000000001</v>
       </c>
     </row>
-    <row r="1037" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1037" spans="1:13">
       <c r="A1037">
         <v>1036</v>
       </c>
@@ -42979,7 +42979,7 @@
         <v>-1.6659942000000001</v>
       </c>
     </row>
-    <row r="1038" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1038" spans="1:13">
       <c r="A1038">
         <v>1037</v>
       </c>
@@ -43020,7 +43020,7 @@
         <v>-2.6380705999999998</v>
       </c>
     </row>
-    <row r="1039" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1039" spans="1:13">
       <c r="A1039">
         <v>1038</v>
       </c>
